--- a/aglomerados.xlsx
+++ b/aglomerados.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/171b4091be173a04/Notebooks/Python/Corona virus/SARIMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="294" documentId="11_EAEE2EE986E1BB4B576384BC3E998CF5C808D8AE" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BEC2FEF3-4D82-47C4-865E-CD128BD4908C}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_E98218900EE6914A8D6384D1AEB498A4125CF031" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{88BBDC9C-437E-4643-BA27-FE009038193C}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9435" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$O$80</definedName>
-  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="111">
   <si>
     <t>aglomerado</t>
   </si>
@@ -86,6 +83,9 @@
     <t>Acorizal</t>
   </si>
   <si>
+    <t>2020-05-29</t>
+  </si>
+  <si>
     <t>Baixada Cuiabana</t>
   </si>
   <si>
@@ -116,12 +116,24 @@
     <t>Diamantino</t>
   </si>
   <si>
+    <t>Arenapolis</t>
+  </si>
+  <si>
     <t>Aripuana</t>
   </si>
   <si>
     <t>Juina</t>
   </si>
   <si>
+    <t>Barra do Buges</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>Tangara da Serra</t>
+  </si>
+  <si>
     <t>Barra do Garcas</t>
   </si>
   <si>
@@ -134,12 +146,15 @@
     <t>Campo Novo do Parecis</t>
   </si>
   <si>
-    <t>Tangara da Serra</t>
-  </si>
-  <si>
     <t>Campo Verde</t>
   </si>
   <si>
+    <t>Campos de Julio</t>
+  </si>
+  <si>
+    <t>Pontes e Lacerda</t>
+  </si>
+  <si>
     <t>Canarana</t>
   </si>
   <si>
@@ -149,6 +164,9 @@
     <t>Colider</t>
   </si>
   <si>
+    <t>Comodoro</t>
+  </si>
+  <si>
     <t>Confresa</t>
   </si>
   <si>
@@ -158,9 +176,6 @@
     <t>Conquista do Oeste</t>
   </si>
   <si>
-    <t>Pontes e Lacerda</t>
-  </si>
-  <si>
     <t>Cotriguacu</t>
   </si>
   <si>
@@ -179,12 +194,18 @@
     <t>Peixoto de Azevedo</t>
   </si>
   <si>
+    <t>Guiratinga</t>
+  </si>
+  <si>
     <t>Ipiranga do Norte</t>
   </si>
   <si>
     <t>Sinop</t>
   </si>
   <si>
+    <t>Itanhanga</t>
+  </si>
+  <si>
     <t>Jaciara</t>
   </si>
   <si>
@@ -209,9 +230,6 @@
     <t>Luciara</t>
   </si>
   <si>
-    <t>Marcelandia</t>
-  </si>
-  <si>
     <t>Matupa</t>
   </si>
   <si>
@@ -224,9 +242,15 @@
     <t>Nossa Senhora do Livramento</t>
   </si>
   <si>
+    <t>Nova Guarita</t>
+  </si>
+  <si>
     <t>Nova Lacerda</t>
   </si>
   <si>
+    <t>Nova Maringa</t>
+  </si>
+  <si>
     <t>Nova Monte Verde</t>
   </si>
   <si>
@@ -236,6 +260,9 @@
     <t>Nova Olimpia</t>
   </si>
   <si>
+    <t>Nova Santa Helena</t>
+  </si>
+  <si>
     <t>Nova Ubirata</t>
   </si>
   <si>
@@ -245,6 +272,12 @@
     <t>Novo Mundo</t>
   </si>
   <si>
+    <t>Novo Santo Antonio</t>
+  </si>
+  <si>
+    <t>Paranaita</t>
+  </si>
+  <si>
     <t>Pedra Preta</t>
   </si>
   <si>
@@ -257,6 +290,9 @@
     <t>Ponte Branca</t>
   </si>
   <si>
+    <t>Porto Esperidiao</t>
+  </si>
+  <si>
     <t>Poxoreu</t>
   </si>
   <si>
@@ -279,6 +315,9 @@
   </si>
   <si>
     <t>Santa Rita do Trivelato</t>
+  </si>
+  <si>
+    <t>Santo Afonso</t>
   </si>
   <si>
     <t>Santo Antonio do Leverger</t>
@@ -330,19 +369,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -365,10 +398,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,21 +696,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -729,7 +759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -742,8 +772,8 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
-        <v>43976</v>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
       <c r="F2">
         <v>5.8000000000000003E-2</v>
@@ -761,27 +791,27 @@
         <v>0.6</v>
       </c>
       <c r="K2">
-        <v>3.0599999999999999E-2</v>
+        <v>6.8279713704814199E-2</v>
       </c>
       <c r="L2">
-        <v>7.6829999999999998</v>
+        <v>3.51936777676109</v>
       </c>
       <c r="M2">
-        <v>8.0879999999999992</v>
+        <v>0.95569342487647402</v>
       </c>
       <c r="N2">
         <v>3.6</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="P2">
+        <v>0.64285714285714302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>24032</v>
@@ -792,8 +822,8 @@
       <c r="D3">
         <v>77</v>
       </c>
-      <c r="E3" s="1">
-        <v>43976</v>
+      <c r="E3" t="s">
+        <v>17</v>
       </c>
       <c r="F3">
         <v>5.8000000000000003E-2</v>
@@ -823,15 +853,15 @@
         <v>3.6</v>
       </c>
       <c r="O3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="2">
+        <v>19</v>
+      </c>
+      <c r="P3">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>51782</v>
@@ -842,8 +872,8 @@
       <c r="D4">
         <v>141</v>
       </c>
-      <c r="E4" s="1">
-        <v>43976</v>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
       <c r="F4">
         <v>5.8000000000000003E-2</v>
@@ -861,27 +891,27 @@
         <v>0.6</v>
       </c>
       <c r="K4">
-        <v>2.9612906214226901E-2</v>
+        <v>3.8134098162464401E-2</v>
       </c>
       <c r="L4">
-        <v>7.76881272471846</v>
+        <v>6.3526351521703797</v>
       </c>
       <c r="M4">
-        <v>10.2615532396325</v>
+        <v>8.5514161373390003</v>
       </c>
       <c r="N4">
         <v>3.6</v>
       </c>
       <c r="O4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>30.928571428571399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>19044</v>
@@ -892,8 +922,8 @@
       <c r="D5">
         <v>98</v>
       </c>
-      <c r="E5" s="1">
-        <v>43976</v>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
       <c r="F5">
         <v>5.8000000000000003E-2</v>
@@ -923,15 +953,15 @@
         <v>3.6</v>
       </c>
       <c r="O5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="2">
+        <v>22</v>
+      </c>
+      <c r="P5">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>6822</v>
@@ -942,8 +972,8 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="1">
-        <v>43976</v>
+      <c r="E6" t="s">
+        <v>17</v>
       </c>
       <c r="F6">
         <v>5.8000000000000003E-2</v>
@@ -973,15 +1003,15 @@
         <v>3.6</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="2">
+        <v>24</v>
+      </c>
+      <c r="P6">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>12030</v>
@@ -992,8 +1022,8 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
-        <v>43976</v>
+      <c r="E7" t="s">
+        <v>17</v>
       </c>
       <c r="F7">
         <v>5.8000000000000003E-2</v>
@@ -1023,15 +1053,15 @@
         <v>3.6</v>
       </c>
       <c r="O7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="2">
+        <v>22</v>
+      </c>
+      <c r="P7">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>11356</v>
@@ -1042,8 +1072,8 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
-        <v>43976</v>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
       <c r="F8">
         <v>5.8000000000000003E-2</v>
@@ -1073,27 +1103,27 @@
         <v>3.6</v>
       </c>
       <c r="O8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="2">
+        <v>27</v>
+      </c>
+      <c r="P8">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9">
-        <v>22354</v>
+        <v>9607</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>33</v>
-      </c>
-      <c r="E9" s="1">
-        <v>43976</v>
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
       </c>
       <c r="F9">
         <v>5.8000000000000003E-2</v>
@@ -1123,177 +1153,177 @@
         <v>3.6</v>
       </c>
       <c r="O9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="2">
+        <v>27</v>
+      </c>
+      <c r="P9">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
       <c r="B10">
+        <v>22354</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.2</v>
+      </c>
+      <c r="H10">
+        <v>0.01</v>
+      </c>
+      <c r="I10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J10">
+        <v>0.6</v>
+      </c>
+      <c r="K10">
+        <v>2.1358995746146501E-2</v>
+      </c>
+      <c r="L10">
+        <v>11.072693436404601</v>
+      </c>
+      <c r="M10">
+        <v>12.6325782198616</v>
+      </c>
+      <c r="N10">
+        <v>3.6</v>
+      </c>
+      <c r="O10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10">
+        <v>2.0714285714285698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>34966</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.2</v>
+      </c>
+      <c r="H11">
+        <v>0.01</v>
+      </c>
+      <c r="I11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J11">
+        <v>0.6</v>
+      </c>
+      <c r="K11">
+        <v>5.1591802535585998E-2</v>
+      </c>
+      <c r="L11">
+        <v>1.5979063664883999</v>
+      </c>
+      <c r="M11">
+        <v>0.83135001987114698</v>
+      </c>
+      <c r="N11">
+        <v>3.6</v>
+      </c>
+      <c r="O11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11">
+        <v>290.71428571428601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
         <v>61012</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>10</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>114</v>
       </c>
-      <c r="E10" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F10">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G10">
-        <v>0.2</v>
-      </c>
-      <c r="H10">
-        <v>0.01</v>
-      </c>
-      <c r="I10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J10">
-        <v>0.6</v>
-      </c>
-      <c r="K10">
-        <v>2.91556412929166E-2</v>
-      </c>
-      <c r="L10">
-        <v>7.2567107009331604</v>
-      </c>
-      <c r="M10">
-        <v>10.0131671463889</v>
-      </c>
-      <c r="N10">
-        <v>3.6</v>
-      </c>
-      <c r="O10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.2</v>
+      </c>
+      <c r="H12">
+        <v>0.01</v>
+      </c>
+      <c r="I12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J12">
+        <v>0.6</v>
+      </c>
+      <c r="K12">
+        <v>6.3106228218072699E-3</v>
+      </c>
+      <c r="L12">
+        <v>3.4099195298788398</v>
+      </c>
+      <c r="M12">
+        <v>0.92012664377805897</v>
+      </c>
+      <c r="N12">
+        <v>3.6</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12">
+        <v>66.357142857142904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
         <v>6580</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F11">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G11">
-        <v>0.2</v>
-      </c>
-      <c r="H11">
-        <v>0.01</v>
-      </c>
-      <c r="I11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J11">
-        <v>0.6</v>
-      </c>
-      <c r="K11">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="L11">
-        <v>7.6829999999999998</v>
-      </c>
-      <c r="M11">
-        <v>8.0879999999999992</v>
-      </c>
-      <c r="N11">
-        <v>3.6</v>
-      </c>
-      <c r="O11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P11" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12">
-        <v>94376</v>
-      </c>
-      <c r="C12">
-        <v>26</v>
-      </c>
-      <c r="D12">
-        <v>225</v>
-      </c>
-      <c r="E12" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F12">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G12">
-        <v>0.2</v>
-      </c>
-      <c r="H12">
-        <v>0.01</v>
-      </c>
-      <c r="I12">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J12">
-        <v>0.6</v>
-      </c>
-      <c r="K12">
-        <v>1.0135618955277001E-2</v>
-      </c>
-      <c r="L12">
-        <v>3.9773714590567999</v>
-      </c>
-      <c r="M12">
-        <v>17.1999920747426</v>
-      </c>
-      <c r="N12">
-        <v>3.6</v>
-      </c>
-      <c r="O12" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>35360</v>
-      </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>32</v>
-      </c>
-      <c r="E13" s="1">
-        <v>43976</v>
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
       </c>
       <c r="F13">
         <v>5.8000000000000003E-2</v>
@@ -1323,327 +1353,327 @@
         <v>3.6</v>
       </c>
       <c r="O13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13">
+        <v>1E+100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>94376</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>225</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.2</v>
+      </c>
+      <c r="H14">
+        <v>0.01</v>
+      </c>
+      <c r="I14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J14">
+        <v>0.6</v>
+      </c>
+      <c r="K14">
+        <v>9.7792987375900503E-3</v>
+      </c>
+      <c r="L14">
+        <v>5.2408947213791297</v>
+      </c>
+      <c r="M14">
+        <v>28.294533486960699</v>
+      </c>
+      <c r="N14">
+        <v>3.6</v>
+      </c>
+      <c r="O14" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14">
+        <v>3.5714285714285698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>35360</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.2</v>
+      </c>
+      <c r="H15">
+        <v>0.01</v>
+      </c>
+      <c r="I15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J15">
+        <v>0.6</v>
+      </c>
+      <c r="K15">
+        <v>1.9977942233189699E-2</v>
+      </c>
+      <c r="L15">
+        <v>7.5255472788547504</v>
+      </c>
+      <c r="M15">
+        <v>0.95940001517996398</v>
+      </c>
+      <c r="N15">
+        <v>3.6</v>
+      </c>
+      <c r="O15" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14">
+      <c r="P15">
+        <v>1.28571428571429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
         <v>44041</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>67</v>
       </c>
-      <c r="E14" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F14">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G14">
-        <v>0.2</v>
-      </c>
-      <c r="H14">
-        <v>0.01</v>
-      </c>
-      <c r="I14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J14">
-        <v>0.6</v>
-      </c>
-      <c r="K14">
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="L14">
-        <v>6.8220000000000001</v>
-      </c>
-      <c r="M14">
-        <v>8.9132999999999996</v>
-      </c>
-      <c r="N14">
-        <v>3.6</v>
-      </c>
-      <c r="O14" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15">
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.2</v>
+      </c>
+      <c r="H16">
+        <v>0.01</v>
+      </c>
+      <c r="I16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J16">
+        <v>0.6</v>
+      </c>
+      <c r="K16">
+        <v>4.8210203565999303E-2</v>
+      </c>
+      <c r="L16">
+        <v>8.8655599030515404</v>
+      </c>
+      <c r="M16">
+        <v>10.805533649371499</v>
+      </c>
+      <c r="N16">
+        <v>3.6</v>
+      </c>
+      <c r="O16" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16">
+        <v>24.428571428571399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>6891</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.2</v>
+      </c>
+      <c r="H17">
+        <v>0.01</v>
+      </c>
+      <c r="I17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J17">
+        <v>0.6</v>
+      </c>
+      <c r="K17">
+        <v>1.2703974E-2</v>
+      </c>
+      <c r="L17">
+        <v>20.322141240000001</v>
+      </c>
+      <c r="M17">
+        <v>14.51748441</v>
+      </c>
+      <c r="N17">
+        <v>3.6</v>
+      </c>
+      <c r="O17" t="s">
+        <v>40</v>
+      </c>
+      <c r="P17">
+        <v>9.5714285710000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
         <v>21579</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>48</v>
       </c>
-      <c r="E15" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F15">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G15">
-        <v>0.2</v>
-      </c>
-      <c r="H15">
-        <v>0.01</v>
-      </c>
-      <c r="I15">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J15">
-        <v>0.6</v>
-      </c>
-      <c r="K15">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="L15">
-        <v>7.6829999999999998</v>
-      </c>
-      <c r="M15">
-        <v>8.0879999999999992</v>
-      </c>
-      <c r="N15">
-        <v>3.6</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.2</v>
+      </c>
+      <c r="H18">
+        <v>0.01</v>
+      </c>
+      <c r="I18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J18">
+        <v>0.6</v>
+      </c>
+      <c r="K18">
+        <v>2.6618153103472899E-2</v>
+      </c>
+      <c r="L18">
+        <v>7.2855676255263804</v>
+      </c>
+      <c r="M18">
+        <v>9.1942169897506094</v>
+      </c>
+      <c r="N18">
+        <v>3.6</v>
+      </c>
+      <c r="O18" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18">
+        <v>1.28571428571429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <v>19752</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.2</v>
+      </c>
+      <c r="H19">
+        <v>0.01</v>
+      </c>
+      <c r="I19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J19">
+        <v>0.6</v>
+      </c>
+      <c r="K19">
+        <v>1.3746252344584599E-2</v>
+      </c>
+      <c r="L19">
+        <v>3.47074081341326</v>
+      </c>
+      <c r="M19">
+        <v>29.396668258957</v>
+      </c>
+      <c r="N19">
+        <v>3.6</v>
+      </c>
+      <c r="O19" t="s">
         <v>18</v>
       </c>
-      <c r="P15" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16">
-        <v>19752</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F16">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G16">
-        <v>0.2</v>
-      </c>
-      <c r="H16">
-        <v>0.01</v>
-      </c>
-      <c r="I16">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J16">
-        <v>0.6</v>
-      </c>
-      <c r="K16">
-        <v>1.13277355850149E-2</v>
-      </c>
-      <c r="L16">
-        <v>5.9481993283415298</v>
-      </c>
-      <c r="M16">
-        <v>20.163204206347501</v>
-      </c>
-      <c r="N16">
-        <v>3.6</v>
-      </c>
-      <c r="O16" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17">
+      <c r="P19">
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
         <v>33438</v>
       </c>
-      <c r="C17">
+      <c r="C20">
         <v>14</v>
       </c>
-      <c r="D17">
+      <c r="D20">
         <v>113</v>
       </c>
-      <c r="E17" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F17">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G17">
-        <v>0.2</v>
-      </c>
-      <c r="H17">
-        <v>0.01</v>
-      </c>
-      <c r="I17">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J17">
-        <v>0.6</v>
-      </c>
-      <c r="K17">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="L17">
-        <v>7.6829999999999998</v>
-      </c>
-      <c r="M17">
-        <v>8.0879999999999992</v>
-      </c>
-      <c r="N17">
-        <v>3.6</v>
-      </c>
-      <c r="O17" t="s">
-        <v>37</v>
-      </c>
-      <c r="P17" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18">
-        <v>30933</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>53</v>
-      </c>
-      <c r="E18" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F18">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G18">
-        <v>0.2</v>
-      </c>
-      <c r="H18">
-        <v>0.01</v>
-      </c>
-      <c r="I18">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J18">
-        <v>0.6</v>
-      </c>
-      <c r="K18">
-        <v>4.1146950402032097E-2</v>
-      </c>
-      <c r="L18">
-        <v>5.5022506096902797</v>
-      </c>
-      <c r="M18">
-        <v>10.149788113089301</v>
-      </c>
-      <c r="N18">
-        <v>3.6</v>
-      </c>
-      <c r="O18" t="s">
-        <v>39</v>
-      </c>
-      <c r="P18" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19">
-        <v>4038</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F19">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G19">
-        <v>0.2</v>
-      </c>
-      <c r="H19">
-        <v>0.01</v>
-      </c>
-      <c r="I19">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J19">
-        <v>0.6</v>
-      </c>
-      <c r="K19">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="L19">
-        <v>7.6829999999999998</v>
-      </c>
-      <c r="M19">
-        <v>8.0879999999999992</v>
-      </c>
-      <c r="N19">
-        <v>3.6</v>
-      </c>
-      <c r="O19" t="s">
-        <v>41</v>
-      </c>
-      <c r="P19" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20">
-        <v>19750</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>33</v>
-      </c>
-      <c r="E20" s="1">
-        <v>43976</v>
+      <c r="E20" t="s">
+        <v>17</v>
       </c>
       <c r="F20">
         <v>5.8000000000000003E-2</v>
@@ -1673,27 +1703,27 @@
         <v>3.6</v>
       </c>
       <c r="O20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="2">
+        <v>43</v>
+      </c>
+      <c r="P20">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21">
-        <v>612547</v>
+        <v>20763</v>
       </c>
       <c r="C21">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1898</v>
-      </c>
-      <c r="E21" s="1">
-        <v>43976</v>
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
       </c>
       <c r="F21">
         <v>5.8000000000000003E-2</v>
@@ -1711,139 +1741,139 @@
         <v>0.6</v>
       </c>
       <c r="K21">
-        <v>3.6980710748565099E-2</v>
+        <v>1.2703974E-2</v>
       </c>
       <c r="L21">
-        <v>5.2770847766225</v>
+        <v>20.322141240000001</v>
       </c>
       <c r="M21">
-        <v>14.436477434040199</v>
+        <v>14.51748441</v>
       </c>
       <c r="N21">
         <v>3.6</v>
       </c>
       <c r="O21" t="s">
-        <v>17</v>
-      </c>
-      <c r="P21" s="2">
+        <v>40</v>
+      </c>
+      <c r="P21">
+        <v>9.5714285710000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22">
+        <v>30933</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.2</v>
+      </c>
+      <c r="H22">
+        <v>0.01</v>
+      </c>
+      <c r="I22">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J22">
+        <v>0.6</v>
+      </c>
+      <c r="K22">
+        <v>3.01705336627454E-2</v>
+      </c>
+      <c r="L22">
+        <v>5.3423641158860304</v>
+      </c>
+      <c r="M22">
+        <v>30.329555588903201</v>
+      </c>
+      <c r="N22">
+        <v>3.6</v>
+      </c>
+      <c r="O22" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>4038</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.2</v>
+      </c>
+      <c r="H23">
+        <v>0.01</v>
+      </c>
+      <c r="I23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J23">
+        <v>0.6</v>
+      </c>
+      <c r="K23">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="L23">
+        <v>7.6829999999999998</v>
+      </c>
+      <c r="M23">
+        <v>8.0879999999999992</v>
+      </c>
+      <c r="N23">
+        <v>3.6</v>
+      </c>
+      <c r="O23" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22">
-        <v>5219</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F22">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G22">
-        <v>0.2</v>
-      </c>
-      <c r="H22">
-        <v>0.01</v>
-      </c>
-      <c r="I22">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J22">
-        <v>0.6</v>
-      </c>
-      <c r="K22">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="L22">
-        <v>7.6829999999999998</v>
-      </c>
-      <c r="M22">
-        <v>8.0879999999999992</v>
-      </c>
-      <c r="N22">
-        <v>3.6</v>
-      </c>
-      <c r="O22" t="s">
-        <v>31</v>
-      </c>
-      <c r="P22" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23">
-        <v>8178</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>20</v>
-      </c>
-      <c r="E23" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F23">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G23">
-        <v>0.2</v>
-      </c>
-      <c r="H23">
-        <v>0.01</v>
-      </c>
-      <c r="I23">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J23">
-        <v>0.6</v>
-      </c>
-      <c r="K23">
-        <v>3.3660158411845803E-2</v>
-      </c>
-      <c r="L23">
-        <v>5.8279078272934903</v>
-      </c>
-      <c r="M23">
-        <v>12.7417119328636</v>
-      </c>
-      <c r="N23">
-        <v>3.6</v>
-      </c>
-      <c r="O23" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24">
-        <v>35016</v>
+        <v>19750</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>48</v>
-      </c>
-      <c r="E24" s="1">
-        <v>43976</v>
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
       </c>
       <c r="F24">
         <v>5.8000000000000003E-2</v>
@@ -1873,27 +1903,27 @@
         <v>3.6</v>
       </c>
       <c r="O24" t="s">
-        <v>47</v>
-      </c>
-      <c r="P24" s="2">
+        <v>30</v>
+      </c>
+      <c r="P24">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25">
-        <v>7667</v>
+        <v>612547</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>43976</v>
+        <v>1898</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
       </c>
       <c r="F25">
         <v>5.8000000000000003E-2</v>
@@ -1911,39 +1941,39 @@
         <v>0.6</v>
       </c>
       <c r="K25">
-        <v>3.0599999999999999E-2</v>
+        <v>2.29495788178571E-2</v>
       </c>
       <c r="L25">
-        <v>7.6829999999999998</v>
+        <v>5.64600260812208</v>
       </c>
       <c r="M25">
-        <v>8.0879999999999992</v>
+        <v>47.211982932379001</v>
       </c>
       <c r="N25">
         <v>3.6</v>
       </c>
       <c r="O25" t="s">
-        <v>49</v>
-      </c>
-      <c r="P25" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="P25">
+        <v>204.642857142857</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
       <c r="B26">
-        <v>27776</v>
+        <v>5219</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>60</v>
-      </c>
-      <c r="E26" s="1">
-        <v>43976</v>
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
       </c>
       <c r="F26">
         <v>5.8000000000000003E-2</v>
@@ -1961,163 +1991,163 @@
         <v>0.6</v>
       </c>
       <c r="K26">
-        <v>3.1083169313376201E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L26">
-        <v>5.0652695017497598</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M26">
-        <v>10.922825130690599</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N26">
         <v>3.6</v>
       </c>
       <c r="O26" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" s="2">
+        <v>36</v>
+      </c>
+      <c r="P26">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>9462</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G27">
+        <v>0.2</v>
+      </c>
+      <c r="H27">
+        <v>0.01</v>
+      </c>
+      <c r="I27">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J27">
+        <v>0.6</v>
+      </c>
+      <c r="K27">
+        <v>4.1736165999999998E-2</v>
+      </c>
+      <c r="L27">
+        <v>3.5596436530000002</v>
+      </c>
+      <c r="M27">
+        <v>0.98320081599999998</v>
+      </c>
+      <c r="N27">
+        <v>3.6</v>
+      </c>
+      <c r="O27" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27">
+        <v>239.2142857</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>51</v>
       </c>
-      <c r="B27">
-        <v>8409</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F27">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G27">
-        <v>0.2</v>
-      </c>
-      <c r="H27">
-        <v>0.01</v>
-      </c>
-      <c r="I27">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J27">
-        <v>0.6</v>
-      </c>
-      <c r="K27">
-        <v>2.63738768242084E-2</v>
-      </c>
-      <c r="L27">
-        <v>8.2033365242608998</v>
-      </c>
-      <c r="M27">
-        <v>8.8822335795589407</v>
-      </c>
-      <c r="N27">
-        <v>3.6</v>
-      </c>
-      <c r="O27" t="s">
-        <v>17</v>
-      </c>
-      <c r="P27" s="2">
+      <c r="B28">
+        <v>8178</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G28">
+        <v>0.2</v>
+      </c>
+      <c r="H28">
+        <v>0.01</v>
+      </c>
+      <c r="I28">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J28">
+        <v>0.6</v>
+      </c>
+      <c r="K28">
+        <v>3.3660158000000003E-2</v>
+      </c>
+      <c r="L28">
+        <v>5.8279078269999998</v>
+      </c>
+      <c r="M28">
+        <v>12.741711929999999</v>
+      </c>
+      <c r="N28">
+        <v>3.6</v>
+      </c>
+      <c r="O28" t="s">
+        <v>22</v>
+      </c>
+      <c r="P28">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>52</v>
       </c>
-      <c r="B28">
-        <v>8793</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>37</v>
-      </c>
-      <c r="E28" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F28">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G28">
-        <v>0.2</v>
-      </c>
-      <c r="H28">
-        <v>0.01</v>
-      </c>
-      <c r="I28">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J28">
-        <v>0.6</v>
-      </c>
-      <c r="K28">
-        <v>2.76E-2</v>
-      </c>
-      <c r="L28">
+      <c r="B29">
+        <v>35016</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G29">
+        <v>0.2</v>
+      </c>
+      <c r="H29">
+        <v>0.01</v>
+      </c>
+      <c r="I29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J29">
+        <v>0.6</v>
+      </c>
+      <c r="K29">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="L29">
         <v>7.6829999999999998</v>
       </c>
-      <c r="M28">
+      <c r="M29">
         <v>8.0879999999999992</v>
-      </c>
-      <c r="N28">
-        <v>3.6</v>
-      </c>
-      <c r="O28" t="s">
-        <v>41</v>
-      </c>
-      <c r="P28" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29">
-        <v>34974</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>65</v>
-      </c>
-      <c r="E29" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F29">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G29">
-        <v>0.2</v>
-      </c>
-      <c r="H29">
-        <v>0.01</v>
-      </c>
-      <c r="I29">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J29">
-        <v>0.6</v>
-      </c>
-      <c r="K29">
-        <v>3.6980710748565099E-2</v>
-      </c>
-      <c r="L29">
-        <v>5.2770847766225</v>
-      </c>
-      <c r="M29">
-        <v>14.436477434040199</v>
       </c>
       <c r="N29">
         <v>3.6</v>
@@ -2125,25 +2155,25 @@
       <c r="O29" t="s">
         <v>53</v>
       </c>
-      <c r="P29" s="2">
+      <c r="P29">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B30">
-        <v>40997</v>
+        <v>15141</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>129</v>
-      </c>
-      <c r="E30" s="1">
-        <v>43976</v>
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
       </c>
       <c r="F30">
         <v>5.8000000000000003E-2</v>
@@ -2161,80 +2191,80 @@
         <v>0.6</v>
       </c>
       <c r="K30">
+        <v>2.9629965000000001E-2</v>
+      </c>
+      <c r="L30">
+        <v>5.7922120780000004</v>
+      </c>
+      <c r="M30">
+        <v>17.390542580000002</v>
+      </c>
+      <c r="N30">
+        <v>3.6</v>
+      </c>
+      <c r="O30" t="s">
+        <v>22</v>
+      </c>
+      <c r="P30">
+        <v>172.85714290000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>7667</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.2</v>
+      </c>
+      <c r="H31">
+        <v>0.01</v>
+      </c>
+      <c r="I31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J31">
+        <v>0.6</v>
+      </c>
+      <c r="K31">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="L30">
+      <c r="L31">
         <v>7.6829999999999998</v>
       </c>
-      <c r="M30">
+      <c r="M31">
         <v>8.0879999999999992</v>
       </c>
-      <c r="N30">
-        <v>3.6</v>
-      </c>
-      <c r="O30" t="s">
-        <v>28</v>
-      </c>
-      <c r="P30" s="2">
+      <c r="N31">
+        <v>3.6</v>
+      </c>
+      <c r="O31" t="s">
+        <v>56</v>
+      </c>
+      <c r="P31">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31">
-        <v>11221</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>33</v>
-      </c>
-      <c r="E31" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F31">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G31">
-        <v>0.2</v>
-      </c>
-      <c r="H31">
-        <v>0.01</v>
-      </c>
-      <c r="I31">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J31">
-        <v>0.6</v>
-      </c>
-      <c r="K31">
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="L31">
-        <v>6.8220000000000001</v>
-      </c>
-      <c r="M31">
-        <v>8.9132999999999996</v>
-      </c>
-      <c r="N31">
-        <v>3.6</v>
-      </c>
-      <c r="O31" t="s">
-        <v>21</v>
-      </c>
-      <c r="P31" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B32">
-        <v>6121</v>
+        <v>6737</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2242,8 +2272,8 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" s="1">
-        <v>43976</v>
+      <c r="E32" t="s">
+        <v>17</v>
       </c>
       <c r="F32">
         <v>5.8000000000000003E-2</v>
@@ -2261,39 +2291,39 @@
         <v>0.6</v>
       </c>
       <c r="K32">
-        <v>3.0599999999999999E-2</v>
+        <v>2.6663023000000001E-2</v>
       </c>
       <c r="L32">
-        <v>7.6829999999999998</v>
+        <v>6.9413917429999996</v>
       </c>
       <c r="M32">
-        <v>8.0879999999999992</v>
+        <v>8.4026394829999997</v>
       </c>
       <c r="N32">
         <v>3.6</v>
       </c>
       <c r="O32" t="s">
-        <v>31</v>
-      </c>
-      <c r="P32" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>56</v>
+      </c>
+      <c r="P32">
+        <v>53.857142860000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B33">
-        <v>65534</v>
+        <v>27776</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>101</v>
-      </c>
-      <c r="E33" s="1">
-        <v>43976</v>
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
       </c>
       <c r="F33">
         <v>5.8000000000000003E-2</v>
@@ -2311,30 +2341,30 @@
         <v>0.6</v>
       </c>
       <c r="K33">
-        <v>3.3051110876597498E-2</v>
+        <v>6.9645976500508897E-2</v>
       </c>
       <c r="L33">
-        <v>5.8988205419008404</v>
+        <v>4.1534982720409896</v>
       </c>
       <c r="M33">
-        <v>14.0644722782007</v>
+        <v>10.9037797929169</v>
       </c>
       <c r="N33">
         <v>3.6</v>
       </c>
       <c r="O33" t="s">
-        <v>49</v>
-      </c>
-      <c r="P33" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+        <v>22</v>
+      </c>
+      <c r="P33">
+        <v>14.5714285714286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B34">
-        <v>2077</v>
+        <v>8409</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2342,8 +2372,8 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" s="1">
-        <v>43976</v>
+      <c r="E34" t="s">
+        <v>17</v>
       </c>
       <c r="F34">
         <v>5.8000000000000003E-2</v>
@@ -2361,39 +2391,39 @@
         <v>0.6</v>
       </c>
       <c r="K34">
-        <v>3.0599999999999999E-2</v>
+        <v>9.5012598977172093E-3</v>
       </c>
       <c r="L34">
-        <v>7.6829999999999998</v>
+        <v>2.4163263272847799</v>
       </c>
       <c r="M34">
-        <v>8.0879999999999992</v>
+        <v>29.086768300890999</v>
       </c>
       <c r="N34">
         <v>3.6</v>
       </c>
       <c r="O34" t="s">
-        <v>23</v>
-      </c>
-      <c r="P34" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="P34">
+        <v>6.8571428571428603</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B35">
-        <v>10499</v>
+        <v>8793</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>11</v>
-      </c>
-      <c r="E35" s="1">
-        <v>43976</v>
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
       </c>
       <c r="F35">
         <v>5.8000000000000003E-2</v>
@@ -2411,7 +2441,7 @@
         <v>0.6</v>
       </c>
       <c r="K35">
-        <v>3.0599999999999999E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="L35">
         <v>7.6829999999999998</v>
@@ -2423,27 +2453,27 @@
         <v>3.6</v>
       </c>
       <c r="O35" t="s">
-        <v>37</v>
-      </c>
-      <c r="P35" s="2">
+        <v>40</v>
+      </c>
+      <c r="P35">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B36">
-        <v>16566</v>
+        <v>34974</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>44</v>
-      </c>
-      <c r="E36" s="1">
-        <v>43976</v>
+        <v>65</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
       </c>
       <c r="F36">
         <v>5.8000000000000003E-2</v>
@@ -2461,39 +2491,39 @@
         <v>0.6</v>
       </c>
       <c r="K36">
-        <v>2.7908567708903698E-2</v>
+        <v>3.6980710999999999E-2</v>
       </c>
       <c r="L36">
-        <v>7.8060582711715201</v>
+        <v>5.2770847769999998</v>
       </c>
       <c r="M36">
-        <v>7.5110472179195504</v>
+        <v>14.43647743</v>
       </c>
       <c r="N36">
         <v>3.6</v>
       </c>
       <c r="O36" t="s">
-        <v>47</v>
-      </c>
-      <c r="P36" s="2">
+        <v>61</v>
+      </c>
+      <c r="P36">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B37">
-        <v>27739</v>
+        <v>40997</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D37">
-        <v>90</v>
-      </c>
-      <c r="E37" s="1">
-        <v>43976</v>
+        <v>129</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
       </c>
       <c r="F37">
         <v>5.8000000000000003E-2</v>
@@ -2523,27 +2553,27 @@
         <v>3.6</v>
       </c>
       <c r="O37" t="s">
-        <v>31</v>
-      </c>
-      <c r="P37" s="2">
+        <v>30</v>
+      </c>
+      <c r="P37">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38">
-        <v>15336</v>
+        <v>11221</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>41</v>
-      </c>
-      <c r="E38" s="1">
-        <v>43976</v>
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
       </c>
       <c r="F38">
         <v>5.8000000000000003E-2</v>
@@ -2561,39 +2591,39 @@
         <v>0.6</v>
       </c>
       <c r="K38">
-        <v>3.0599999999999999E-2</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="L38">
-        <v>7.6829999999999998</v>
+        <v>6.8220000000000001</v>
       </c>
       <c r="M38">
-        <v>8.0879999999999992</v>
+        <v>8.9132999999999996</v>
       </c>
       <c r="N38">
         <v>3.6</v>
       </c>
       <c r="O38" t="s">
-        <v>26</v>
-      </c>
-      <c r="P38" s="2">
+        <v>22</v>
+      </c>
+      <c r="P38">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B39">
-        <v>13216</v>
+        <v>6121</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>16</v>
-      </c>
-      <c r="E39" s="1">
-        <v>43976</v>
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
       </c>
       <c r="F39">
         <v>5.8000000000000003E-2</v>
@@ -2623,27 +2653,27 @@
         <v>3.6</v>
       </c>
       <c r="O39" t="s">
-        <v>17</v>
-      </c>
-      <c r="P39" s="2">
+        <v>36</v>
+      </c>
+      <c r="P39">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B40">
-        <v>6640</v>
+        <v>65534</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>6</v>
-      </c>
-      <c r="E40" s="1">
-        <v>43976</v>
+        <v>101</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
       </c>
       <c r="F40">
         <v>5.8000000000000003E-2</v>
@@ -2661,39 +2691,39 @@
         <v>0.6</v>
       </c>
       <c r="K40">
-        <v>3.0599999999999999E-2</v>
+        <v>1.13632935554242E-2</v>
       </c>
       <c r="L40">
-        <v>7.6829999999999998</v>
+        <v>7.4461166575643798</v>
       </c>
       <c r="M40">
-        <v>8.0879999999999992</v>
+        <v>20.401085810215001</v>
       </c>
       <c r="N40">
         <v>3.6</v>
       </c>
       <c r="O40" t="s">
-        <v>41</v>
-      </c>
-      <c r="P40" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+        <v>56</v>
+      </c>
+      <c r="P40">
+        <v>22.571428571428601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B41">
-        <v>9178</v>
+        <v>2077</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>13</v>
-      </c>
-      <c r="E41" s="1">
-        <v>43976</v>
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
       </c>
       <c r="F41">
         <v>5.8000000000000003E-2</v>
@@ -2723,27 +2753,27 @@
         <v>3.6</v>
       </c>
       <c r="O41" t="s">
-        <v>19</v>
-      </c>
-      <c r="P41" s="2">
+        <v>24</v>
+      </c>
+      <c r="P41">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B42">
-        <v>45378</v>
+        <v>16566</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>37</v>
-      </c>
-      <c r="E42" s="1">
-        <v>43976</v>
+        <v>44</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
       </c>
       <c r="F42">
         <v>5.8000000000000003E-2</v>
@@ -2761,39 +2791,39 @@
         <v>0.6</v>
       </c>
       <c r="K42">
-        <v>2.1760949708467699E-2</v>
+        <v>2.7908568000000002E-2</v>
       </c>
       <c r="L42">
-        <v>4.1075240214323898</v>
+        <v>7.8060582710000004</v>
       </c>
       <c r="M42">
-        <v>8.3025838179211</v>
+        <v>7.5110472179999999</v>
       </c>
       <c r="N42">
         <v>3.6</v>
       </c>
       <c r="O42" t="s">
-        <v>49</v>
-      </c>
-      <c r="P42" s="2">
+        <v>53</v>
+      </c>
+      <c r="P42">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B43">
-        <v>20301</v>
+        <v>27739</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>50</v>
-      </c>
-      <c r="E43" s="1">
-        <v>43976</v>
+        <v>90</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
       </c>
       <c r="F43">
         <v>5.8000000000000003E-2</v>
@@ -2823,27 +2853,27 @@
         <v>3.6</v>
       </c>
       <c r="O43" t="s">
-        <v>33</v>
-      </c>
-      <c r="P43" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+        <v>36</v>
+      </c>
+      <c r="P43">
+        <v>6.21428571428571</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B44">
-        <v>11982</v>
+        <v>15336</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44" s="1">
-        <v>43976</v>
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
       </c>
       <c r="F44">
         <v>5.8000000000000003E-2</v>
@@ -2873,27 +2903,27 @@
         <v>3.6</v>
       </c>
       <c r="O44" t="s">
-        <v>49</v>
-      </c>
-      <c r="P44" s="2">
+        <v>27</v>
+      </c>
+      <c r="P44">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B45">
-        <v>21374</v>
+        <v>13216</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>34</v>
-      </c>
-      <c r="E45" s="1">
-        <v>43976</v>
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
       </c>
       <c r="F45">
         <v>5.8000000000000003E-2</v>
@@ -2911,30 +2941,30 @@
         <v>0.6</v>
       </c>
       <c r="K45">
-        <v>3.0599999999999999E-2</v>
+        <v>3.8250899380948597E-2</v>
       </c>
       <c r="L45">
-        <v>7.6829999999999998</v>
+        <v>3.6530868290668002</v>
       </c>
       <c r="M45">
-        <v>8.0879999999999992</v>
+        <v>11.4791598796657</v>
       </c>
       <c r="N45">
         <v>3.6</v>
       </c>
       <c r="O45" t="s">
-        <v>29</v>
-      </c>
-      <c r="P45" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+        <v>18</v>
+      </c>
+      <c r="P45">
+        <v>0.71428571428571397</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B46">
-        <v>9178</v>
+        <v>4519</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2942,8 +2972,8 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46" s="1">
-        <v>43976</v>
+      <c r="E46" t="s">
+        <v>17</v>
       </c>
       <c r="F46">
         <v>5.8000000000000003E-2</v>
@@ -2973,27 +3003,27 @@
         <v>3.6</v>
       </c>
       <c r="O46" t="s">
-        <v>47</v>
-      </c>
-      <c r="P46" s="2">
+        <v>43</v>
+      </c>
+      <c r="P46">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B47">
-        <v>17626</v>
+        <v>6640</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>31</v>
-      </c>
-      <c r="E47" s="1">
-        <v>43976</v>
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
       </c>
       <c r="F47">
         <v>5.8000000000000003E-2</v>
@@ -3011,39 +3041,39 @@
         <v>0.6</v>
       </c>
       <c r="K47">
-        <v>3.3660158411845803E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L47">
-        <v>5.8279078272934903</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M47">
-        <v>12.7417119328636</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N47">
         <v>3.6</v>
       </c>
       <c r="O47" t="s">
-        <v>21</v>
-      </c>
-      <c r="P47" s="2">
+        <v>40</v>
+      </c>
+      <c r="P47">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B48">
-        <v>34976</v>
+        <v>22041</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>56</v>
-      </c>
-      <c r="E48" s="1">
-        <v>43976</v>
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>32</v>
       </c>
       <c r="F48">
         <v>5.8000000000000003E-2</v>
@@ -3061,39 +3091,39 @@
         <v>0.6</v>
       </c>
       <c r="K48">
-        <v>2.7908567708903698E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L48">
-        <v>7.8060582711715201</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M48">
-        <v>7.5110472179195504</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N48">
         <v>3.6</v>
       </c>
       <c r="O48" t="s">
-        <v>47</v>
-      </c>
-      <c r="P48" s="2">
+        <v>27</v>
+      </c>
+      <c r="P48">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B49">
-        <v>32843</v>
+        <v>9178</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>64</v>
-      </c>
-      <c r="E49" s="1">
-        <v>43976</v>
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
       </c>
       <c r="F49">
         <v>5.8000000000000003E-2</v>
@@ -3123,27 +3153,27 @@
         <v>3.6</v>
       </c>
       <c r="O49" t="s">
-        <v>17</v>
-      </c>
-      <c r="P49" s="2">
+        <v>20</v>
+      </c>
+      <c r="P49">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B50">
-        <v>6711</v>
+        <v>45378</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1">
-        <v>43976</v>
+        <v>37</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
       </c>
       <c r="F50">
         <v>5.8000000000000003E-2</v>
@@ -3161,39 +3191,39 @@
         <v>0.6</v>
       </c>
       <c r="K50">
-        <v>3.0599999999999999E-2</v>
+        <v>1.55781656670803E-2</v>
       </c>
       <c r="L50">
-        <v>7.6829999999999998</v>
+        <v>11.991636685107499</v>
       </c>
       <c r="M50">
-        <v>8.0879999999999992</v>
+        <v>18.694517950823499</v>
       </c>
       <c r="N50">
         <v>3.6</v>
       </c>
       <c r="O50" t="s">
-        <v>29</v>
-      </c>
-      <c r="P50" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+        <v>56</v>
+      </c>
+      <c r="P50">
+        <v>2.0714285714285698</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B51">
-        <v>1576</v>
+        <v>20301</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>21</v>
-      </c>
-      <c r="E51" s="1">
-        <v>43976</v>
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
       </c>
       <c r="F51">
         <v>5.8000000000000003E-2</v>
@@ -3223,27 +3253,27 @@
         <v>3.6</v>
       </c>
       <c r="O51" t="s">
-        <v>29</v>
-      </c>
-      <c r="P51" s="2">
+        <v>33</v>
+      </c>
+      <c r="P51">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="B52">
-        <v>45093</v>
+        <v>3718</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>69</v>
-      </c>
-      <c r="E52" s="1">
-        <v>43976</v>
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
       </c>
       <c r="F52">
         <v>5.8000000000000003E-2</v>
@@ -3261,39 +3291,39 @@
         <v>0.6</v>
       </c>
       <c r="K52">
-        <v>1.36216084427254E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L52">
-        <v>19.146776157578799</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M52">
-        <v>14.388226467286399</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N52">
         <v>3.6</v>
       </c>
       <c r="O52" t="s">
-        <v>41</v>
-      </c>
-      <c r="P52" s="2">
+        <v>43</v>
+      </c>
+      <c r="P52">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="B53">
-        <v>12517</v>
+        <v>11982</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>18</v>
-      </c>
-      <c r="E53" s="1">
-        <v>43976</v>
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
       </c>
       <c r="F53">
         <v>5.8000000000000003E-2</v>
@@ -3311,180 +3341,180 @@
         <v>0.6</v>
       </c>
       <c r="K53">
+        <v>4.0216495626894298E-2</v>
+      </c>
+      <c r="L53">
+        <v>8.2132762325312303</v>
+      </c>
+      <c r="M53">
+        <v>9.1775961873475609</v>
+      </c>
+      <c r="N53">
+        <v>3.6</v>
+      </c>
+      <c r="O53" t="s">
+        <v>56</v>
+      </c>
+      <c r="P53">
+        <v>9.8571428571428594</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54">
+        <v>21374</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>34</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G54">
+        <v>0.2</v>
+      </c>
+      <c r="H54">
+        <v>0.01</v>
+      </c>
+      <c r="I54">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J54">
+        <v>0.6</v>
+      </c>
+      <c r="K54">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="L53">
+      <c r="L54">
         <v>7.6829999999999998</v>
       </c>
-      <c r="M53">
+      <c r="M54">
         <v>8.0879999999999992</v>
       </c>
-      <c r="N53">
-        <v>3.6</v>
-      </c>
-      <c r="O53" t="s">
-        <v>39</v>
-      </c>
-      <c r="P53" s="2">
+      <c r="N54">
+        <v>3.6</v>
+      </c>
+      <c r="O54" t="s">
+        <v>34</v>
+      </c>
+      <c r="P54">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
-      <c r="A54" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54">
-        <v>16219</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>96</v>
-      </c>
-      <c r="E54" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F54">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G54">
-        <v>0.2</v>
-      </c>
-      <c r="H54">
-        <v>0.01</v>
-      </c>
-      <c r="I54">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J54">
-        <v>0.6</v>
-      </c>
-      <c r="K54">
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="L54">
-        <v>6.8220000000000001</v>
-      </c>
-      <c r="M54">
-        <v>8.9132999999999996</v>
-      </c>
-      <c r="N54">
-        <v>3.6</v>
-      </c>
-      <c r="O54" t="s">
-        <v>21</v>
-      </c>
-      <c r="P54" s="2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55">
+        <v>9178</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G55">
+        <v>0.2</v>
+      </c>
+      <c r="H55">
+        <v>0.01</v>
+      </c>
+      <c r="I55">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J55">
+        <v>0.6</v>
+      </c>
+      <c r="K55">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="L55">
+        <v>7.6829999999999998</v>
+      </c>
+      <c r="M55">
+        <v>8.0879999999999992</v>
+      </c>
+      <c r="N55">
+        <v>3.6</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
-      <c r="A55" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55">
-        <v>62019</v>
-      </c>
-      <c r="C55">
-        <v>22</v>
-      </c>
-      <c r="D55">
-        <v>162</v>
-      </c>
-      <c r="E55" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F55">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G55">
-        <v>0.2</v>
-      </c>
-      <c r="H55">
-        <v>0.01</v>
-      </c>
-      <c r="I55">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J55">
-        <v>0.6</v>
-      </c>
-      <c r="K55">
-        <v>3.20192221188451E-2</v>
-      </c>
-      <c r="L55">
-        <v>9.6715516179942593</v>
-      </c>
-      <c r="M55">
-        <v>16.815978068644899</v>
-      </c>
-      <c r="N55">
-        <v>3.6</v>
-      </c>
-      <c r="O55" t="s">
-        <v>21</v>
-      </c>
-      <c r="P55" s="2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56">
+        <v>2640</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G56">
+        <v>0.2</v>
+      </c>
+      <c r="H56">
+        <v>0.01</v>
+      </c>
+      <c r="I56">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J56">
+        <v>0.6</v>
+      </c>
+      <c r="K56">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="L56">
+        <v>7.6829999999999998</v>
+      </c>
+      <c r="M56">
+        <v>8.0879999999999992</v>
+      </c>
+      <c r="N56">
+        <v>3.6</v>
+      </c>
+      <c r="O56" t="s">
+        <v>24</v>
+      </c>
+      <c r="P56">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
-      <c r="A56" t="s">
-        <v>76</v>
-      </c>
-      <c r="B56">
-        <v>17479</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>31</v>
-      </c>
-      <c r="E56" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F56">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G56">
-        <v>0.2</v>
-      </c>
-      <c r="H56">
-        <v>0.01</v>
-      </c>
-      <c r="I56">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J56">
-        <v>0.6</v>
-      </c>
-      <c r="K56">
-        <v>1.6247765643237599E-2</v>
-      </c>
-      <c r="L56">
-        <v>4.5977000132764996</v>
-      </c>
-      <c r="M56">
-        <v>0.862263047161834</v>
-      </c>
-      <c r="N56">
-        <v>3.6</v>
-      </c>
-      <c r="O56" t="s">
-        <v>18</v>
-      </c>
-      <c r="P56" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B57">
-        <v>10206</v>
+        <v>11225</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3492,8 +3522,8 @@
       <c r="D57">
         <v>32</v>
       </c>
-      <c r="E57" s="1">
-        <v>43976</v>
+      <c r="E57" t="s">
+        <v>17</v>
       </c>
       <c r="F57">
         <v>5.8000000000000003E-2</v>
@@ -3511,239 +3541,239 @@
         <v>0.6</v>
       </c>
       <c r="K57">
+        <v>1.6163787999999998E-2</v>
+      </c>
+      <c r="L57">
+        <v>4.9995845829999999</v>
+      </c>
+      <c r="M57">
+        <v>11.78338213</v>
+      </c>
+      <c r="N57">
+        <v>3.6</v>
+      </c>
+      <c r="O57" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57">
+        <v>3.4285714289999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58">
+        <v>17626</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>31</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G58">
+        <v>0.2</v>
+      </c>
+      <c r="H58">
+        <v>0.01</v>
+      </c>
+      <c r="I58">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J58">
+        <v>0.6</v>
+      </c>
+      <c r="K58">
+        <v>3.3660158000000003E-2</v>
+      </c>
+      <c r="L58">
+        <v>5.8279078269999998</v>
+      </c>
+      <c r="M58">
+        <v>12.741711929999999</v>
+      </c>
+      <c r="N58">
+        <v>3.6</v>
+      </c>
+      <c r="O58" t="s">
+        <v>22</v>
+      </c>
+      <c r="P58">
+        <v>1E+100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59">
+        <v>34976</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>56</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G59">
+        <v>0.2</v>
+      </c>
+      <c r="H59">
+        <v>0.01</v>
+      </c>
+      <c r="I59">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J59">
+        <v>0.6</v>
+      </c>
+      <c r="K59">
+        <v>3.3900478482115998E-2</v>
+      </c>
+      <c r="L59">
+        <v>4.1665517809424504</v>
+      </c>
+      <c r="M59">
+        <v>11.597316133374299</v>
+      </c>
+      <c r="N59">
+        <v>3.6</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59">
+        <v>7.6428571428571397</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60">
+        <v>32843</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>64</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G60">
+        <v>0.2</v>
+      </c>
+      <c r="H60">
+        <v>0.01</v>
+      </c>
+      <c r="I60">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J60">
+        <v>0.6</v>
+      </c>
+      <c r="K60">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="L57">
+      <c r="L60">
         <v>7.6829999999999998</v>
       </c>
-      <c r="M57">
+      <c r="M60">
         <v>8.0879999999999992</v>
       </c>
-      <c r="N57">
-        <v>3.6</v>
-      </c>
-      <c r="O57" t="s">
+      <c r="N60">
+        <v>3.6</v>
+      </c>
+      <c r="O60" t="s">
         <v>18</v>
       </c>
-      <c r="P57" s="2">
+      <c r="P60">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
-      <c r="A58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58">
-        <v>5156</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>18</v>
-      </c>
-      <c r="E58" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F58">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G58">
-        <v>0.2</v>
-      </c>
-      <c r="H58">
-        <v>0.01</v>
-      </c>
-      <c r="I58">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J58">
-        <v>0.6</v>
-      </c>
-      <c r="K58">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="L58">
-        <v>7.6829999999999998</v>
-      </c>
-      <c r="M58">
-        <v>8.0879999999999992</v>
-      </c>
-      <c r="N58">
-        <v>3.6</v>
-      </c>
-      <c r="O58" t="s">
-        <v>31</v>
-      </c>
-      <c r="P58" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="A59" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59">
-        <v>4001</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F59">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G59">
-        <v>0.2</v>
-      </c>
-      <c r="H59">
-        <v>0.01</v>
-      </c>
-      <c r="I59">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J59">
-        <v>0.6</v>
-      </c>
-      <c r="K59">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="L59">
-        <v>7.6829999999999998</v>
-      </c>
-      <c r="M59">
-        <v>8.0879999999999992</v>
-      </c>
-      <c r="N59">
-        <v>3.6</v>
-      </c>
-      <c r="O59" t="s">
-        <v>41</v>
-      </c>
-      <c r="P59" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60" t="s">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61">
+        <v>6711</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G61">
+        <v>0.2</v>
+      </c>
+      <c r="H61">
+        <v>0.01</v>
+      </c>
+      <c r="I61">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J61">
+        <v>0.6</v>
+      </c>
+      <c r="K61">
+        <v>2.17794666087846E-2</v>
+      </c>
+      <c r="L61">
+        <v>2.3971022734388701</v>
+      </c>
+      <c r="M61">
+        <v>37.234675090901199</v>
+      </c>
+      <c r="N61">
+        <v>3.6</v>
+      </c>
+      <c r="O61" t="s">
+        <v>34</v>
+      </c>
+      <c r="P61">
+        <v>0.214285714285714</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62">
+        <v>1576</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
         <v>21</v>
       </c>
-      <c r="B60">
-        <v>232491</v>
-      </c>
-      <c r="C60">
-        <v>79</v>
-      </c>
-      <c r="D60">
-        <v>526</v>
-      </c>
-      <c r="E60" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F60">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G60">
-        <v>0.2</v>
-      </c>
-      <c r="H60">
-        <v>0.01</v>
-      </c>
-      <c r="I60">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J60">
-        <v>0.6</v>
-      </c>
-      <c r="K60">
-        <v>3.3660158411845803E-2</v>
-      </c>
-      <c r="L60">
-        <v>5.8279078272934903</v>
-      </c>
-      <c r="M60">
-        <v>12.7417119328636</v>
-      </c>
-      <c r="N60">
-        <v>3.6</v>
-      </c>
-      <c r="O60" t="s">
-        <v>21</v>
-      </c>
-      <c r="P60" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
-      <c r="A61" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61">
-        <v>17151</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>63</v>
-      </c>
-      <c r="E61" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F61">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G61">
-        <v>0.2</v>
-      </c>
-      <c r="H61">
-        <v>0.01</v>
-      </c>
-      <c r="I61">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J61">
-        <v>0.6</v>
-      </c>
-      <c r="K61">
-        <v>1.4830959566366399E-2</v>
-      </c>
-      <c r="L61">
-        <v>9.4447319118686792</v>
-      </c>
-      <c r="M61">
-        <v>0.95428538241532701</v>
-      </c>
-      <c r="N61">
-        <v>3.6</v>
-      </c>
-      <c r="O61" t="s">
-        <v>26</v>
-      </c>
-      <c r="P61" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="A62" t="s">
-        <v>81</v>
-      </c>
-      <c r="B62">
-        <v>3429</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1">
-        <v>43976</v>
+      <c r="E62" t="s">
+        <v>17</v>
       </c>
       <c r="F62">
         <v>5.8000000000000003E-2</v>
@@ -3773,27 +3803,27 @@
         <v>3.6</v>
       </c>
       <c r="O62" t="s">
-        <v>49</v>
-      </c>
-      <c r="P62" s="2">
+        <v>34</v>
+      </c>
+      <c r="P62">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="B63">
-        <v>16628</v>
+        <v>45093</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>20</v>
-      </c>
-      <c r="E63" s="1">
-        <v>43976</v>
+        <v>69</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
       </c>
       <c r="F63">
         <v>5.8000000000000003E-2</v>
@@ -3811,39 +3841,39 @@
         <v>0.6</v>
       </c>
       <c r="K63">
-        <v>3.0599999999999999E-2</v>
+        <v>2.4041680585820801E-2</v>
       </c>
       <c r="L63">
-        <v>7.6829999999999998</v>
+        <v>9.25181402214149</v>
       </c>
       <c r="M63">
-        <v>8.0879999999999992</v>
+        <v>19.276737191849701</v>
       </c>
       <c r="N63">
         <v>3.6</v>
       </c>
       <c r="O63" t="s">
-        <v>17</v>
-      </c>
-      <c r="P63" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+        <v>40</v>
+      </c>
+      <c r="P63">
+        <v>11.214285714285699</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B64">
-        <v>11708</v>
+        <v>12517</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>40</v>
-      </c>
-      <c r="E64" s="1">
-        <v>43976</v>
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
       </c>
       <c r="F64">
         <v>5.8000000000000003E-2</v>
@@ -3873,18 +3903,18 @@
         <v>3.6</v>
       </c>
       <c r="O64" t="s">
-        <v>23</v>
-      </c>
-      <c r="P64" s="2">
+        <v>46</v>
+      </c>
+      <c r="P64">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B65">
-        <v>4063</v>
+        <v>12017</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3892,8 +3922,8 @@
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="E65" s="1">
-        <v>43976</v>
+      <c r="E65" t="s">
+        <v>17</v>
       </c>
       <c r="F65">
         <v>5.8000000000000003E-2</v>
@@ -3911,207 +3941,207 @@
         <v>0.6</v>
       </c>
       <c r="K65">
+        <v>9.0652609999999998E-3</v>
+      </c>
+      <c r="L65">
+        <v>3.417739283</v>
+      </c>
+      <c r="M65">
+        <v>33.081355459999997</v>
+      </c>
+      <c r="N65">
+        <v>3.6</v>
+      </c>
+      <c r="O65" t="s">
+        <v>36</v>
+      </c>
+      <c r="P65">
+        <v>5.0714285710000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66">
+        <v>16219</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>96</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G66">
+        <v>0.2</v>
+      </c>
+      <c r="H66">
+        <v>0.01</v>
+      </c>
+      <c r="I66">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J66">
+        <v>0.6</v>
+      </c>
+      <c r="K66">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="L65">
+      <c r="L66">
         <v>6.8220000000000001</v>
       </c>
-      <c r="M65">
+      <c r="M66">
         <v>8.9132999999999996</v>
       </c>
-      <c r="N65">
-        <v>3.6</v>
-      </c>
-      <c r="O65" t="s">
-        <v>21</v>
-      </c>
-      <c r="P65" s="2">
+      <c r="N66">
+        <v>3.6</v>
+      </c>
+      <c r="O66" t="s">
+        <v>22</v>
+      </c>
+      <c r="P66">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
-      <c r="A66" t="s">
-        <v>84</v>
-      </c>
-      <c r="B66">
-        <v>5595</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>8</v>
-      </c>
-      <c r="E66" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F66">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G66">
-        <v>0.2</v>
-      </c>
-      <c r="H66">
-        <v>0.01</v>
-      </c>
-      <c r="I66">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J66">
-        <v>0.6</v>
-      </c>
-      <c r="K66">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67">
+        <v>62019</v>
+      </c>
+      <c r="C67">
+        <v>22</v>
+      </c>
+      <c r="D67">
+        <v>162</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G67">
+        <v>0.2</v>
+      </c>
+      <c r="H67">
+        <v>0.01</v>
+      </c>
+      <c r="I67">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J67">
+        <v>0.6</v>
+      </c>
+      <c r="K67">
+        <v>1.07922881178664E-2</v>
+      </c>
+      <c r="L67">
+        <v>9.9641448395076608</v>
+      </c>
+      <c r="M67">
+        <v>61.9058071350739</v>
+      </c>
+      <c r="N67">
+        <v>3.6</v>
+      </c>
+      <c r="O67" t="s">
+        <v>22</v>
+      </c>
+      <c r="P67">
+        <v>16.6428571428571</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68">
+        <v>17479</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>31</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G68">
+        <v>0.2</v>
+      </c>
+      <c r="H68">
+        <v>0.01</v>
+      </c>
+      <c r="I68">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J68">
+        <v>0.6</v>
+      </c>
+      <c r="K68">
+        <v>1.6750449966961699E-2</v>
+      </c>
+      <c r="L68">
+        <v>4.5723540433302299</v>
+      </c>
+      <c r="M68">
+        <v>0.92385450253879298</v>
+      </c>
+      <c r="N68">
+        <v>3.6</v>
+      </c>
+      <c r="O68" t="s">
+        <v>19</v>
+      </c>
+      <c r="P68">
+        <v>12.714285714285699</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69">
+        <v>10206</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>32</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G69">
+        <v>0.2</v>
+      </c>
+      <c r="H69">
+        <v>0.01</v>
+      </c>
+      <c r="I69">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J69">
+        <v>0.6</v>
+      </c>
+      <c r="K69">
         <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="L66">
-        <v>7.6829999999999998</v>
-      </c>
-      <c r="M66">
-        <v>8.0879999999999992</v>
-      </c>
-      <c r="N66">
-        <v>3.6</v>
-      </c>
-      <c r="O66" t="s">
-        <v>39</v>
-      </c>
-      <c r="P66" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
-      <c r="A67" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67">
-        <v>18906</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <v>25</v>
-      </c>
-      <c r="E67" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F67">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G67">
-        <v>0.2</v>
-      </c>
-      <c r="H67">
-        <v>0.01</v>
-      </c>
-      <c r="I67">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J67">
-        <v>0.6</v>
-      </c>
-      <c r="K67">
-        <v>2.85547249344444E-2</v>
-      </c>
-      <c r="L67">
-        <v>6.1857903440276001</v>
-      </c>
-      <c r="M67">
-        <v>10.443650881094699</v>
-      </c>
-      <c r="N67">
-        <v>3.6</v>
-      </c>
-      <c r="O67" t="s">
-        <v>31</v>
-      </c>
-      <c r="P67" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
-      <c r="A68" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68">
-        <v>4727</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F68">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G68">
-        <v>0.2</v>
-      </c>
-      <c r="H68">
-        <v>0.01</v>
-      </c>
-      <c r="I68">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J68">
-        <v>0.6</v>
-      </c>
-      <c r="K68">
-        <v>2.76315690801778E-2</v>
-      </c>
-      <c r="L68">
-        <v>8.4663059912822494</v>
-      </c>
-      <c r="M68">
-        <v>8.9475827373002197</v>
-      </c>
-      <c r="N68">
-        <v>3.6</v>
-      </c>
-      <c r="O68" t="s">
-        <v>21</v>
-      </c>
-      <c r="P68" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
-      <c r="A69" t="s">
-        <v>87</v>
-      </c>
-      <c r="B69">
-        <v>25881</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>53</v>
-      </c>
-      <c r="E69" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F69">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G69">
-        <v>0.2</v>
-      </c>
-      <c r="H69">
-        <v>0.01</v>
-      </c>
-      <c r="I69">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J69">
-        <v>0.6</v>
-      </c>
-      <c r="K69">
-        <v>3.6600000000000001E-2</v>
       </c>
       <c r="L69">
         <v>7.6829999999999998</v>
@@ -4123,27 +4153,27 @@
         <v>3.6</v>
       </c>
       <c r="O69" t="s">
-        <v>33</v>
-      </c>
-      <c r="P69" s="2">
+        <v>19</v>
+      </c>
+      <c r="P69">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="B70">
-        <v>139000</v>
+        <v>5156</v>
       </c>
       <c r="C70">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>266</v>
-      </c>
-      <c r="E70" s="1">
-        <v>43976</v>
+        <v>18</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
       </c>
       <c r="F70">
         <v>5.8000000000000003E-2</v>
@@ -4173,27 +4203,27 @@
         <v>3.6</v>
       </c>
       <c r="O70" t="s">
-        <v>49</v>
-      </c>
-      <c r="P70" s="2">
+        <v>36</v>
+      </c>
+      <c r="P70">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B71">
-        <v>90313</v>
+        <v>4001</v>
       </c>
       <c r="C71">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>160</v>
-      </c>
-      <c r="E71" s="1">
-        <v>43976</v>
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
       </c>
       <c r="F71">
         <v>5.8000000000000003E-2</v>
@@ -4223,227 +4253,227 @@
         <v>3.6</v>
       </c>
       <c r="O71" t="s">
-        <v>49</v>
-      </c>
-      <c r="P71" s="2">
+        <v>40</v>
+      </c>
+      <c r="P71">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72">
+        <v>232491</v>
+      </c>
+      <c r="C72">
+        <v>79</v>
+      </c>
+      <c r="D72">
+        <v>526</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G72">
+        <v>0.2</v>
+      </c>
+      <c r="H72">
+        <v>0.01</v>
+      </c>
+      <c r="I72">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J72">
+        <v>0.6</v>
+      </c>
+      <c r="K72">
+        <v>3.5174526760962603E-2</v>
+      </c>
+      <c r="L72">
+        <v>3.9595611072248098</v>
+      </c>
+      <c r="M72">
+        <v>31.9950332782781</v>
+      </c>
+      <c r="N72">
+        <v>3.6</v>
+      </c>
+      <c r="O72" t="s">
+        <v>22</v>
+      </c>
+      <c r="P72">
+        <v>145.642857142857</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73">
+        <v>17151</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>63</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G73">
+        <v>0.2</v>
+      </c>
+      <c r="H73">
+        <v>0.01</v>
+      </c>
+      <c r="I73">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J73">
+        <v>0.6</v>
+      </c>
+      <c r="K73">
+        <v>8.0859183420085899E-4</v>
+      </c>
+      <c r="L73">
+        <v>4.4134143222608504</v>
+      </c>
+      <c r="M73">
+        <v>0.452892712771786</v>
+      </c>
+      <c r="N73">
+        <v>3.6</v>
+      </c>
+      <c r="O73" t="s">
+        <v>27</v>
+      </c>
+      <c r="P73">
+        <v>244.57142857142901</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74">
+        <v>3429</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G74">
+        <v>0.2</v>
+      </c>
+      <c r="H74">
+        <v>0.01</v>
+      </c>
+      <c r="I74">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J74">
+        <v>0.6</v>
+      </c>
+      <c r="K74">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="L74">
+        <v>7.6829999999999998</v>
+      </c>
+      <c r="M74">
+        <v>8.0879999999999992</v>
+      </c>
+      <c r="N74">
+        <v>3.6</v>
+      </c>
+      <c r="O74" t="s">
+        <v>56</v>
+      </c>
+      <c r="P74">
+        <v>1E+100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75">
+        <v>3146</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G75">
+        <v>0.2</v>
+      </c>
+      <c r="H75">
+        <v>0.01</v>
+      </c>
+      <c r="I75">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J75">
+        <v>0.6</v>
+      </c>
+      <c r="K75">
+        <v>4.1736165999999998E-2</v>
+      </c>
+      <c r="L75">
+        <v>3.5596436530000002</v>
+      </c>
+      <c r="M75">
+        <v>0.98320081599999998</v>
+      </c>
+      <c r="N75">
+        <v>3.6</v>
+      </c>
+      <c r="O75" t="s">
         <v>33</v>
       </c>
-      <c r="B72">
-        <v>103750</v>
-      </c>
-      <c r="C72">
-        <v>47</v>
-      </c>
-      <c r="D72">
-        <v>200</v>
-      </c>
-      <c r="E72" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F72">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G72">
-        <v>0.2</v>
-      </c>
-      <c r="H72">
-        <v>0.01</v>
-      </c>
-      <c r="I72">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J72">
-        <v>0.6</v>
-      </c>
-      <c r="K72">
-        <v>4.1736166370666197E-2</v>
-      </c>
-      <c r="L72">
-        <v>3.5596436530618099</v>
-      </c>
-      <c r="M72">
-        <v>0.98320081613089005</v>
-      </c>
-      <c r="N72">
-        <v>3.6</v>
-      </c>
-      <c r="O72" t="s">
-        <v>33</v>
-      </c>
-      <c r="P72" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
-      <c r="A73" t="s">
-        <v>89</v>
-      </c>
-      <c r="B73">
-        <v>13705</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
+      <c r="P75">
+        <v>239.2142857</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76">
+        <v>16628</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
         <v>20</v>
       </c>
-      <c r="E73" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F73">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G73">
-        <v>0.2</v>
-      </c>
-      <c r="H73">
-        <v>0.01</v>
-      </c>
-      <c r="I73">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J73">
-        <v>0.6</v>
-      </c>
-      <c r="K73">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="L73">
-        <v>7.6829999999999998</v>
-      </c>
-      <c r="M73">
-        <v>8.0879999999999992</v>
-      </c>
-      <c r="N73">
-        <v>3.6</v>
-      </c>
-      <c r="O73" t="s">
-        <v>49</v>
-      </c>
-      <c r="P73" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
-      <c r="A74" t="s">
-        <v>90</v>
-      </c>
-      <c r="B74">
-        <v>9667</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>37</v>
-      </c>
-      <c r="E74" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F74">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G74">
-        <v>0.2</v>
-      </c>
-      <c r="H74">
-        <v>0.01</v>
-      </c>
-      <c r="I74">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J74">
-        <v>0.6</v>
-      </c>
-      <c r="K74">
-        <v>2.7908567708903698E-2</v>
-      </c>
-      <c r="L74">
-        <v>7.8060582711715201</v>
-      </c>
-      <c r="M74">
-        <v>7.5110472179195504</v>
-      </c>
-      <c r="N74">
-        <v>3.6</v>
-      </c>
-      <c r="O74" t="s">
-        <v>47</v>
-      </c>
-      <c r="P74" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
-      <c r="A75" t="s">
-        <v>91</v>
-      </c>
-      <c r="B75">
-        <v>3525</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F75">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G75">
-        <v>0.2</v>
-      </c>
-      <c r="H75">
-        <v>0.01</v>
-      </c>
-      <c r="I75">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J75">
-        <v>0.6</v>
-      </c>
-      <c r="K75">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="L75">
-        <v>7.6829999999999998</v>
-      </c>
-      <c r="M75">
-        <v>8.0879999999999992</v>
-      </c>
-      <c r="N75">
-        <v>3.6</v>
-      </c>
-      <c r="O75" t="s">
-        <v>49</v>
-      </c>
-      <c r="P75" s="2">
-        <v>1E+100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
-      <c r="A76" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76">
-        <v>3127</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>5</v>
-      </c>
-      <c r="E76" s="1">
-        <v>43976</v>
+      <c r="E76" t="s">
+        <v>17</v>
       </c>
       <c r="F76">
         <v>5.8000000000000003E-2</v>
@@ -4473,27 +4503,27 @@
         <v>3.6</v>
       </c>
       <c r="O76" t="s">
-        <v>41</v>
-      </c>
-      <c r="P76" s="2">
+        <v>18</v>
+      </c>
+      <c r="P76">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="B77">
-        <v>284971</v>
+        <v>11708</v>
       </c>
       <c r="C77">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>368</v>
-      </c>
-      <c r="E77" s="1">
-        <v>43976</v>
+        <v>40</v>
+      </c>
+      <c r="E77" t="s">
+        <v>17</v>
       </c>
       <c r="F77">
         <v>5.8000000000000003E-2</v>
@@ -4511,30 +4541,30 @@
         <v>0.6</v>
       </c>
       <c r="K77">
-        <v>2.4343722739621501E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L77">
-        <v>8.8726689765868603</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M77">
-        <v>25.159818347796801</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N77">
         <v>3.6</v>
       </c>
       <c r="O77" t="s">
-        <v>17</v>
-      </c>
-      <c r="P77" s="2">
+        <v>24</v>
+      </c>
+      <c r="P77">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B78">
-        <v>11309</v>
+        <v>4063</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -4542,8 +4572,8 @@
       <c r="D78">
         <v>0</v>
       </c>
-      <c r="E78" s="1">
-        <v>43976</v>
+      <c r="E78" t="s">
+        <v>17</v>
       </c>
       <c r="F78">
         <v>5.8000000000000003E-2</v>
@@ -4561,39 +4591,39 @@
         <v>0.6</v>
       </c>
       <c r="K78">
-        <v>3.0599999999999999E-2</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="L78">
-        <v>7.6829999999999998</v>
+        <v>6.8220000000000001</v>
       </c>
       <c r="M78">
-        <v>8.0879999999999992</v>
+        <v>8.9132999999999996</v>
       </c>
       <c r="N78">
         <v>3.6</v>
       </c>
       <c r="O78" t="s">
-        <v>49</v>
-      </c>
-      <c r="P78" s="2">
+        <v>22</v>
+      </c>
+      <c r="P78">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B79">
-        <v>16128</v>
+        <v>5595</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>47</v>
-      </c>
-      <c r="E79" s="1">
-        <v>43976</v>
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
       </c>
       <c r="F79">
         <v>5.8000000000000003E-2</v>
@@ -4623,60 +4653,710 @@
         <v>3.6</v>
       </c>
       <c r="O79" t="s">
-        <v>41</v>
-      </c>
-      <c r="P79" s="2">
+        <v>46</v>
+      </c>
+      <c r="P79">
         <v>1E+100</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="16.5" customHeight="1">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B80">
+        <v>18906</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G80">
+        <v>0.2</v>
+      </c>
+      <c r="H80">
+        <v>0.01</v>
+      </c>
+      <c r="I80">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J80">
+        <v>0.6</v>
+      </c>
+      <c r="K80">
+        <v>4.7121184622964003E-2</v>
+      </c>
+      <c r="L80">
+        <v>1.7185242801093099</v>
+      </c>
+      <c r="M80">
+        <v>16.398095697229099</v>
+      </c>
+      <c r="N80">
+        <v>3.6</v>
+      </c>
+      <c r="O80" t="s">
+        <v>36</v>
+      </c>
+      <c r="P80">
+        <v>7.1428571428571397E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>100</v>
+      </c>
+      <c r="B81">
+        <v>4727</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G81">
+        <v>0.2</v>
+      </c>
+      <c r="H81">
+        <v>0.01</v>
+      </c>
+      <c r="I81">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J81">
+        <v>0.6</v>
+      </c>
+      <c r="K81">
+        <v>1.06898638636226E-2</v>
+      </c>
+      <c r="L81">
+        <v>8.3178930739496604</v>
+      </c>
+      <c r="M81">
+        <v>10.7961696957536</v>
+      </c>
+      <c r="N81">
+        <v>3.6</v>
+      </c>
+      <c r="O81" t="s">
+        <v>22</v>
+      </c>
+      <c r="P81">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82">
+        <v>25881</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>53</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G82">
+        <v>0.2</v>
+      </c>
+      <c r="H82">
+        <v>0.01</v>
+      </c>
+      <c r="I82">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J82">
+        <v>0.6</v>
+      </c>
+      <c r="K82">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="L82">
+        <v>7.6829999999999998</v>
+      </c>
+      <c r="M82">
+        <v>8.0879999999999992</v>
+      </c>
+      <c r="N82">
+        <v>3.6</v>
+      </c>
+      <c r="O82" t="s">
+        <v>33</v>
+      </c>
+      <c r="P82">
+        <v>1E+100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83">
+        <v>139000</v>
+      </c>
+      <c r="C83">
+        <v>42</v>
+      </c>
+      <c r="D83">
+        <v>266</v>
+      </c>
+      <c r="E83" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G83">
+        <v>0.2</v>
+      </c>
+      <c r="H83">
+        <v>0.01</v>
+      </c>
+      <c r="I83">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J83">
+        <v>0.6</v>
+      </c>
+      <c r="K83">
+        <v>1.00831972865521E-2</v>
+      </c>
+      <c r="L83">
+        <v>8.3176650498921294</v>
+      </c>
+      <c r="M83">
+        <v>0.91822374509312898</v>
+      </c>
+      <c r="N83">
+        <v>3.6</v>
+      </c>
+      <c r="O83" t="s">
+        <v>56</v>
+      </c>
+      <c r="P83">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84">
+        <v>90313</v>
+      </c>
+      <c r="C84">
+        <v>26</v>
+      </c>
+      <c r="D84">
+        <v>160</v>
+      </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G84">
+        <v>0.2</v>
+      </c>
+      <c r="H84">
+        <v>0.01</v>
+      </c>
+      <c r="I84">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J84">
+        <v>0.6</v>
+      </c>
+      <c r="K84">
+        <v>2.4180420470819398E-2</v>
+      </c>
+      <c r="L84">
+        <v>3.2398107573623798</v>
+      </c>
+      <c r="M84">
+        <v>17.249344588714798</v>
+      </c>
+      <c r="N84">
+        <v>3.6</v>
+      </c>
+      <c r="O84" t="s">
+        <v>56</v>
+      </c>
+      <c r="P84">
+        <v>56.928571428571402</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85">
+        <v>103750</v>
+      </c>
+      <c r="C85">
+        <v>47</v>
+      </c>
+      <c r="D85">
+        <v>200</v>
+      </c>
+      <c r="E85" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G85">
+        <v>0.2</v>
+      </c>
+      <c r="H85">
+        <v>0.01</v>
+      </c>
+      <c r="I85">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J85">
+        <v>0.6</v>
+      </c>
+      <c r="K85">
+        <v>5.1591802535585998E-2</v>
+      </c>
+      <c r="L85">
+        <v>1.5979063664883999</v>
+      </c>
+      <c r="M85">
+        <v>0.83135001987114698</v>
+      </c>
+      <c r="N85">
+        <v>3.6</v>
+      </c>
+      <c r="O85" t="s">
+        <v>33</v>
+      </c>
+      <c r="P85">
+        <v>290.71428571428601</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86">
+        <v>13705</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>20</v>
+      </c>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G86">
+        <v>0.2</v>
+      </c>
+      <c r="H86">
+        <v>0.01</v>
+      </c>
+      <c r="I86">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J86">
+        <v>0.6</v>
+      </c>
+      <c r="K86">
+        <v>1.03775123973519E-2</v>
+      </c>
+      <c r="L86">
+        <v>6.49856045319682</v>
+      </c>
+      <c r="M86">
+        <v>20.496198364921401</v>
+      </c>
+      <c r="N86">
+        <v>3.6</v>
+      </c>
+      <c r="O86" t="s">
+        <v>56</v>
+      </c>
+      <c r="P86">
+        <v>3.5714285714285698</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87">
+        <v>9667</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>37</v>
+      </c>
+      <c r="E87" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G87">
+        <v>0.2</v>
+      </c>
+      <c r="H87">
+        <v>0.01</v>
+      </c>
+      <c r="I87">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J87">
+        <v>0.6</v>
+      </c>
+      <c r="K87">
+        <v>2.7908568000000002E-2</v>
+      </c>
+      <c r="L87">
+        <v>7.8060582710000004</v>
+      </c>
+      <c r="M87">
+        <v>7.5110472179999999</v>
+      </c>
+      <c r="N87">
+        <v>3.6</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87">
+        <v>1E+100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88">
+        <v>3525</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G88">
+        <v>0.2</v>
+      </c>
+      <c r="H88">
+        <v>0.01</v>
+      </c>
+      <c r="I88">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J88">
+        <v>0.6</v>
+      </c>
+      <c r="K88">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="L88">
+        <v>7.6829999999999998</v>
+      </c>
+      <c r="M88">
+        <v>8.0879999999999992</v>
+      </c>
+      <c r="N88">
+        <v>3.6</v>
+      </c>
+      <c r="O88" t="s">
+        <v>56</v>
+      </c>
+      <c r="P88">
+        <v>1E+100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89">
+        <v>3127</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G89">
+        <v>0.2</v>
+      </c>
+      <c r="H89">
+        <v>0.01</v>
+      </c>
+      <c r="I89">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J89">
+        <v>0.6</v>
+      </c>
+      <c r="K89">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="L89">
+        <v>7.6829999999999998</v>
+      </c>
+      <c r="M89">
+        <v>8.0879999999999992</v>
+      </c>
+      <c r="N89">
+        <v>3.6</v>
+      </c>
+      <c r="O89" t="s">
+        <v>40</v>
+      </c>
+      <c r="P89">
+        <v>1E+100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90">
+        <v>284971</v>
+      </c>
+      <c r="C90">
+        <v>78</v>
+      </c>
+      <c r="D90">
+        <v>368</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G90">
+        <v>0.2</v>
+      </c>
+      <c r="H90">
+        <v>0.01</v>
+      </c>
+      <c r="I90">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J90">
+        <v>0.6</v>
+      </c>
+      <c r="K90">
+        <v>5.77641703029889E-3</v>
+      </c>
+      <c r="L90">
+        <v>21.657136436923601</v>
+      </c>
+      <c r="M90">
+        <v>28.113325504865799</v>
+      </c>
+      <c r="N90">
+        <v>3.6</v>
+      </c>
+      <c r="O90" t="s">
+        <v>18</v>
+      </c>
+      <c r="P90">
+        <v>71.142857142857096</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91">
+        <v>11309</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G91">
+        <v>0.2</v>
+      </c>
+      <c r="H91">
+        <v>0.01</v>
+      </c>
+      <c r="I91">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J91">
+        <v>0.6</v>
+      </c>
+      <c r="K91">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="L91">
+        <v>7.6829999999999998</v>
+      </c>
+      <c r="M91">
+        <v>8.0879999999999992</v>
+      </c>
+      <c r="N91">
+        <v>3.6</v>
+      </c>
+      <c r="O91" t="s">
+        <v>56</v>
+      </c>
+      <c r="P91">
+        <v>1E+100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92">
+        <v>16128</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>47</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G92">
+        <v>0.2</v>
+      </c>
+      <c r="H92">
+        <v>0.01</v>
+      </c>
+      <c r="I92">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J92">
+        <v>0.6</v>
+      </c>
+      <c r="K92">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="L92">
+        <v>7.6829999999999998</v>
+      </c>
+      <c r="M92">
+        <v>8.0879999999999992</v>
+      </c>
+      <c r="N92">
+        <v>3.6</v>
+      </c>
+      <c r="O92" t="s">
+        <v>40</v>
+      </c>
+      <c r="P92">
+        <v>1E+100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93">
         <v>26037</v>
       </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
         <v>21</v>
       </c>
-      <c r="E80" s="1">
-        <v>43976</v>
-      </c>
-      <c r="F80">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G80">
-        <v>0.2</v>
-      </c>
-      <c r="H80">
-        <v>0.01</v>
-      </c>
-      <c r="I80">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J80">
-        <v>0.6</v>
-      </c>
-      <c r="K80">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="L80">
-        <v>7.6829999999999998</v>
-      </c>
-      <c r="M80">
-        <v>8.0879999999999992</v>
-      </c>
-      <c r="N80">
-        <v>3.6</v>
-      </c>
-      <c r="O80" t="s">
-        <v>39</v>
-      </c>
-      <c r="P80" s="2">
-        <v>1E+100</v>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G93">
+        <v>0.2</v>
+      </c>
+      <c r="H93">
+        <v>0.01</v>
+      </c>
+      <c r="I93">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J93">
+        <v>0.6</v>
+      </c>
+      <c r="K93">
+        <v>5.37464212924132E-2</v>
+      </c>
+      <c r="L93">
+        <v>1.95715944566961</v>
+      </c>
+      <c r="M93">
+        <v>61.994073717996898</v>
+      </c>
+      <c r="N93">
+        <v>3.6</v>
+      </c>
+      <c r="O93" t="s">
+        <v>46</v>
+      </c>
+      <c r="P93">
+        <v>1.6428571428571399</v>
       </c>
     </row>
   </sheetData>

--- a/aglomerados.xlsx
+++ b/aglomerados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/171b4091be173a04/Notebooks/Python/Corona virus/SARIMA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mega\COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_E98218900EE6914A8D6384D1AEB498A4125CF031" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{88BBDC9C-437E-4643-BA27-FE009038193C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4629DF-2205-4F7B-A7E5-C742EE14186C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9435" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="112">
   <si>
     <t>aglomerado</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Acorizal</t>
   </si>
   <si>
-    <t>2020-05-29</t>
-  </si>
-  <si>
     <t>Baixada Cuiabana</t>
   </si>
   <si>
@@ -116,6 +113,12 @@
     <t>Diamantino</t>
   </si>
   <si>
+    <t>Araputanga</t>
+  </si>
+  <si>
+    <t>Caceres</t>
+  </si>
+  <si>
     <t>Arenapolis</t>
   </si>
   <si>
@@ -125,12 +128,6 @@
     <t>Juina</t>
   </si>
   <si>
-    <t>Barra do Buges</t>
-  </si>
-  <si>
-    <t>2020-05-30</t>
-  </si>
-  <si>
     <t>Tangara da Serra</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>Bom Jesus do Araguaia</t>
   </si>
   <si>
-    <t>Caceres</t>
-  </si>
-  <si>
     <t>Campo Novo do Parecis</t>
   </si>
   <si>
@@ -164,6 +158,9 @@
     <t>Colider</t>
   </si>
   <si>
+    <t>Colniza</t>
+  </si>
+  <si>
     <t>Comodoro</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
     <t>Curvelandia</t>
   </si>
   <si>
+    <t>Denise</t>
+  </si>
+  <si>
     <t>Dom Aquino</t>
   </si>
   <si>
@@ -363,19 +363,28 @@
   </si>
   <si>
     <t>Vila Rica</t>
+  </si>
+  <si>
+    <t>Barra do Bugres</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -398,8 +407,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,17 +706,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P93"/>
+  <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -772,46 +785,46 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1">
+        <v>43982</v>
+      </c>
+      <c r="F2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.2</v>
+      </c>
+      <c r="H2">
+        <v>0.01</v>
+      </c>
+      <c r="I2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J2">
+        <v>0.6</v>
+      </c>
+      <c r="K2">
+        <v>2.60170845945237E-2</v>
+      </c>
+      <c r="L2">
+        <v>8.3483826052237706</v>
+      </c>
+      <c r="M2">
+        <v>0.47741173570710799</v>
+      </c>
+      <c r="N2">
+        <v>3.6</v>
+      </c>
+      <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="F2">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G2">
-        <v>0.2</v>
-      </c>
-      <c r="H2">
-        <v>0.01</v>
-      </c>
-      <c r="I2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J2">
-        <v>0.6</v>
-      </c>
-      <c r="K2">
-        <v>6.8279713704814199E-2</v>
-      </c>
-      <c r="L2">
-        <v>3.51936777676109</v>
-      </c>
-      <c r="M2">
-        <v>0.95569342487647402</v>
-      </c>
-      <c r="N2">
-        <v>3.6</v>
-      </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
       <c r="P2">
-        <v>0.64285714285714302</v>
+        <v>1.0714285714285701</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>24032</v>
@@ -822,8 +835,8 @@
       <c r="D3">
         <v>77</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
+      <c r="E3" s="1">
+        <v>43982</v>
       </c>
       <c r="F3">
         <v>5.8000000000000003E-2</v>
@@ -853,7 +866,7 @@
         <v>3.6</v>
       </c>
       <c r="O3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P3">
         <v>1E+100</v>
@@ -861,7 +874,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>51782</v>
@@ -872,8 +885,8 @@
       <c r="D4">
         <v>141</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
+      <c r="E4" s="1">
+        <v>43982</v>
       </c>
       <c r="F4">
         <v>5.8000000000000003E-2</v>
@@ -891,27 +904,27 @@
         <v>0.6</v>
       </c>
       <c r="K4">
-        <v>3.8134098162464401E-2</v>
+        <v>4.5911302634456197E-2</v>
       </c>
       <c r="L4">
-        <v>6.3526351521703797</v>
+        <v>4.5887766835895496</v>
       </c>
       <c r="M4">
-        <v>8.5514161373390003</v>
+        <v>11.877781723598501</v>
       </c>
       <c r="N4">
         <v>3.6</v>
       </c>
       <c r="O4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P4">
-        <v>30.928571428571399</v>
+        <v>23.785714285714299</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>19044</v>
@@ -922,8 +935,8 @@
       <c r="D5">
         <v>98</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
+      <c r="E5" s="1">
+        <v>43982</v>
       </c>
       <c r="F5">
         <v>5.8000000000000003E-2</v>
@@ -941,27 +954,27 @@
         <v>0.6</v>
       </c>
       <c r="K5">
-        <v>3.3599999999999998E-2</v>
+        <v>4.2141061359850802E-2</v>
       </c>
       <c r="L5">
-        <v>6.8220000000000001</v>
+        <v>4.39056657558839</v>
       </c>
       <c r="M5">
-        <v>8.9132999999999996</v>
+        <v>10.466102940335</v>
       </c>
       <c r="N5">
         <v>3.6</v>
       </c>
       <c r="O5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P5">
-        <v>1E+100</v>
+        <v>3.1428571428571401</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>6822</v>
@@ -972,8 +985,8 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
+      <c r="E6" s="1">
+        <v>43982</v>
       </c>
       <c r="F6">
         <v>5.8000000000000003E-2</v>
@@ -1003,7 +1016,7 @@
         <v>3.6</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P6">
         <v>1E+100</v>
@@ -1011,7 +1024,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>12030</v>
@@ -1022,8 +1035,8 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
+      <c r="E7" s="1">
+        <v>43982</v>
       </c>
       <c r="F7">
         <v>5.8000000000000003E-2</v>
@@ -1053,7 +1066,7 @@
         <v>3.6</v>
       </c>
       <c r="O7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P7">
         <v>1E+100</v>
@@ -1061,7 +1074,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>11356</v>
@@ -1072,8 +1085,8 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
+      <c r="E8" s="1">
+        <v>43982</v>
       </c>
       <c r="F8">
         <v>5.8000000000000003E-2</v>
@@ -1103,7 +1116,7 @@
         <v>3.6</v>
       </c>
       <c r="O8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P8">
         <v>1E+100</v>
@@ -1111,52 +1124,52 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>16822</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43982</v>
+      </c>
+      <c r="F9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.2</v>
+      </c>
+      <c r="H9">
+        <v>0.01</v>
+      </c>
+      <c r="I9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J9">
+        <v>0.6</v>
+      </c>
+      <c r="K9">
+        <v>9.779299E-3</v>
+      </c>
+      <c r="L9">
+        <v>5.2408947210000001</v>
+      </c>
+      <c r="M9">
+        <v>28.294533489999999</v>
+      </c>
+      <c r="N9">
+        <v>3.6</v>
+      </c>
+      <c r="O9" t="s">
         <v>28</v>
       </c>
-      <c r="B9">
-        <v>9607</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G9">
-        <v>0.2</v>
-      </c>
-      <c r="H9">
-        <v>0.01</v>
-      </c>
-      <c r="I9">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J9">
-        <v>0.6</v>
-      </c>
-      <c r="K9">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="L9">
-        <v>7.6829999999999998</v>
-      </c>
-      <c r="M9">
-        <v>8.0879999999999992</v>
-      </c>
-      <c r="N9">
-        <v>3.6</v>
-      </c>
-      <c r="O9" t="s">
-        <v>27</v>
-      </c>
       <c r="P9">
-        <v>1E+100</v>
+        <v>3.5714285710000002</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1164,16 +1177,16 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>22354</v>
+        <v>9607</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>43982</v>
       </c>
       <c r="F10">
         <v>5.8000000000000003E-2</v>
@@ -1191,89 +1204,89 @@
         <v>0.6</v>
       </c>
       <c r="K10">
-        <v>2.1358995746146501E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L10">
-        <v>11.072693436404601</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M10">
-        <v>12.6325782198616</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N10">
         <v>3.6</v>
       </c>
       <c r="O10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P10">
-        <v>2.0714285714285698</v>
+        <v>1E+100</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>22354</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1">
+        <v>43982</v>
+      </c>
+      <c r="F11">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.2</v>
+      </c>
+      <c r="H11">
+        <v>0.01</v>
+      </c>
+      <c r="I11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J11">
+        <v>0.6</v>
+      </c>
+      <c r="K11">
+        <v>1.8448686199481999E-2</v>
+      </c>
+      <c r="L11">
+        <v>16.6935840478545</v>
+      </c>
+      <c r="M11">
+        <v>18.726021766994901</v>
+      </c>
+      <c r="N11">
+        <v>3.6</v>
+      </c>
+      <c r="O11" t="s">
         <v>31</v>
       </c>
-      <c r="B11">
-        <v>34966</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>59</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G11">
-        <v>0.2</v>
-      </c>
-      <c r="H11">
-        <v>0.01</v>
-      </c>
-      <c r="I11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J11">
-        <v>0.6</v>
-      </c>
-      <c r="K11">
-        <v>5.1591802535585998E-2</v>
-      </c>
-      <c r="L11">
-        <v>1.5979063664883999</v>
-      </c>
-      <c r="M11">
-        <v>0.83135001987114698</v>
-      </c>
-      <c r="N11">
-        <v>3.6</v>
-      </c>
-      <c r="O11" t="s">
-        <v>33</v>
-      </c>
       <c r="P11">
-        <v>290.71428571428601</v>
+        <v>7.0714285714285703</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="B12">
-        <v>61012</v>
+        <v>34966</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>114</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
+        <v>59</v>
+      </c>
+      <c r="E12" s="1">
+        <v>43982</v>
       </c>
       <c r="F12">
         <v>5.8000000000000003E-2</v>
@@ -1291,39 +1304,39 @@
         <v>0.6</v>
       </c>
       <c r="K12">
-        <v>6.3106228218072699E-3</v>
+        <v>5.1591802999999999E-2</v>
       </c>
       <c r="L12">
-        <v>3.4099195298788398</v>
+        <v>1.5979063659999999</v>
       </c>
       <c r="M12">
-        <v>0.92012664377805897</v>
+        <v>0.83135002000000002</v>
       </c>
       <c r="N12">
         <v>3.6</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P12">
-        <v>66.357142857142904</v>
+        <v>290.7142857</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13">
-        <v>6580</v>
+        <v>61012</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
+        <v>114</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43982</v>
       </c>
       <c r="F13">
         <v>5.8000000000000003E-2</v>
@@ -1341,39 +1354,39 @@
         <v>0.6</v>
       </c>
       <c r="K13">
-        <v>3.0599999999999999E-2</v>
+        <v>6.3106229999999996E-3</v>
       </c>
       <c r="L13">
-        <v>7.6829999999999998</v>
+        <v>3.4099195299999998</v>
       </c>
       <c r="M13">
-        <v>8.0879999999999992</v>
+        <v>0.92012664399999999</v>
       </c>
       <c r="N13">
         <v>3.6</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="P13">
-        <v>1E+100</v>
+        <v>66.357142859999996</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14">
-        <v>94376</v>
+        <v>6580</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>225</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>43982</v>
       </c>
       <c r="F14">
         <v>5.8000000000000003E-2</v>
@@ -1391,39 +1404,39 @@
         <v>0.6</v>
       </c>
       <c r="K14">
-        <v>9.7792987375900503E-3</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L14">
-        <v>5.2408947213791297</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M14">
-        <v>28.294533486960699</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N14">
         <v>3.6</v>
       </c>
       <c r="O14" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="P14">
-        <v>3.5714285714285698</v>
+        <v>1E+100</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B15">
-        <v>35360</v>
+        <v>94376</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
+        <v>225</v>
+      </c>
+      <c r="E15" s="1">
+        <v>43982</v>
       </c>
       <c r="F15">
         <v>5.8000000000000003E-2</v>
@@ -1441,39 +1454,39 @@
         <v>0.6</v>
       </c>
       <c r="K15">
-        <v>1.9977942233189699E-2</v>
+        <v>9.779299E-3</v>
       </c>
       <c r="L15">
-        <v>7.5255472788547504</v>
+        <v>5.2408947210000001</v>
       </c>
       <c r="M15">
-        <v>0.95940001517996398</v>
+        <v>28.294533489999999</v>
       </c>
       <c r="N15">
         <v>3.6</v>
       </c>
       <c r="O15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P15">
-        <v>1.28571428571429</v>
+        <v>3.5714285710000002</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16">
-        <v>44041</v>
+        <v>35360</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="E16" s="1">
+        <v>43982</v>
       </c>
       <c r="F16">
         <v>5.8000000000000003E-2</v>
@@ -1491,39 +1504,39 @@
         <v>0.6</v>
       </c>
       <c r="K16">
-        <v>4.8210203565999303E-2</v>
+        <v>1.9977941999999999E-2</v>
       </c>
       <c r="L16">
-        <v>8.8655599030515404</v>
+        <v>7.5255472790000004</v>
       </c>
       <c r="M16">
-        <v>10.805533649371499</v>
+        <v>0.95940001500000005</v>
       </c>
       <c r="N16">
         <v>3.6</v>
       </c>
       <c r="O16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P16">
-        <v>24.428571428571399</v>
+        <v>1.2857142859999999</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B17">
-        <v>6891</v>
+        <v>44041</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>17</v>
+        <v>67</v>
+      </c>
+      <c r="E17" s="1">
+        <v>43982</v>
       </c>
       <c r="F17">
         <v>5.8000000000000003E-2</v>
@@ -1541,39 +1554,39 @@
         <v>0.6</v>
       </c>
       <c r="K17">
-        <v>1.2703974E-2</v>
+        <v>4.8210204E-2</v>
       </c>
       <c r="L17">
-        <v>20.322141240000001</v>
+        <v>8.8655599029999994</v>
       </c>
       <c r="M17">
-        <v>14.51748441</v>
+        <v>10.805533649999999</v>
       </c>
       <c r="N17">
         <v>3.6</v>
       </c>
       <c r="O17" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="P17">
-        <v>9.5714285710000002</v>
+        <v>24.428571430000002</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B18">
-        <v>21579</v>
+        <v>6891</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E18" s="1">
+        <v>43982</v>
       </c>
       <c r="F18">
         <v>5.8000000000000003E-2</v>
@@ -1591,39 +1604,39 @@
         <v>0.6</v>
       </c>
       <c r="K18">
-        <v>2.6618153103472899E-2</v>
+        <v>1.2703974E-2</v>
       </c>
       <c r="L18">
-        <v>7.2855676255263804</v>
+        <v>20.322141240000001</v>
       </c>
       <c r="M18">
-        <v>9.1942169897506094</v>
+        <v>14.51748441</v>
       </c>
       <c r="N18">
         <v>3.6</v>
       </c>
       <c r="O18" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="P18">
-        <v>1.28571428571429</v>
+        <v>9.5714285710000002</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19">
-        <v>19752</v>
+        <v>21579</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="E19" s="1">
+        <v>43982</v>
       </c>
       <c r="F19">
         <v>5.8000000000000003E-2</v>
@@ -1641,13 +1654,13 @@
         <v>0.6</v>
       </c>
       <c r="K19">
-        <v>1.3746252344584599E-2</v>
+        <v>2.6618152999999999E-2</v>
       </c>
       <c r="L19">
-        <v>3.47074081341326</v>
+        <v>7.2855676259999997</v>
       </c>
       <c r="M19">
-        <v>29.396668258957</v>
+        <v>9.1942169899999993</v>
       </c>
       <c r="N19">
         <v>3.6</v>
@@ -1656,74 +1669,74 @@
         <v>18</v>
       </c>
       <c r="P19">
-        <v>0.71428571428571397</v>
+        <v>1.2857142859999999</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B20">
-        <v>33438</v>
+        <v>19752</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>113</v>
-      </c>
-      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>43982</v>
+      </c>
+      <c r="F20">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.2</v>
+      </c>
+      <c r="H20">
+        <v>0.01</v>
+      </c>
+      <c r="I20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J20">
+        <v>0.6</v>
+      </c>
+      <c r="K20">
+        <v>1.3746252E-2</v>
+      </c>
+      <c r="L20">
+        <v>3.4707408129999999</v>
+      </c>
+      <c r="M20">
+        <v>29.396668259999998</v>
+      </c>
+      <c r="N20">
+        <v>3.6</v>
+      </c>
+      <c r="O20" t="s">
         <v>17</v>
       </c>
-      <c r="F20">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G20">
-        <v>0.2</v>
-      </c>
-      <c r="H20">
-        <v>0.01</v>
-      </c>
-      <c r="I20">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J20">
-        <v>0.6</v>
-      </c>
-      <c r="K20">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="L20">
-        <v>7.6829999999999998</v>
-      </c>
-      <c r="M20">
-        <v>8.0879999999999992</v>
-      </c>
-      <c r="N20">
-        <v>3.6</v>
-      </c>
-      <c r="O20" t="s">
-        <v>43</v>
-      </c>
       <c r="P20">
-        <v>1E+100</v>
+        <v>0.71428571399999996</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B21">
-        <v>20763</v>
+        <v>33438</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
+        <v>113</v>
+      </c>
+      <c r="E21" s="1">
+        <v>43982</v>
       </c>
       <c r="F21">
         <v>5.8000000000000003E-2</v>
@@ -1741,39 +1754,39 @@
         <v>0.6</v>
       </c>
       <c r="K21">
-        <v>1.2703974E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L21">
-        <v>20.322141240000001</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M21">
-        <v>14.51748441</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N21">
         <v>3.6</v>
       </c>
       <c r="O21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P21">
-        <v>9.5714285710000002</v>
+        <v>1E+100</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B22">
-        <v>30933</v>
+        <v>38582</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>53</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="E22" s="1">
+        <v>43982</v>
       </c>
       <c r="F22">
         <v>5.8000000000000003E-2</v>
@@ -1791,39 +1804,39 @@
         <v>0.6</v>
       </c>
       <c r="K22">
-        <v>3.01705336627454E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L22">
-        <v>5.3423641158860304</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M22">
-        <v>30.329555588903201</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N22">
         <v>3.6</v>
       </c>
       <c r="O22" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="P22">
-        <v>16.5</v>
+        <v>1E+100</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B23">
-        <v>4038</v>
+        <v>20763</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
+        <v>42</v>
+      </c>
+      <c r="E23" s="1">
+        <v>43982</v>
       </c>
       <c r="F23">
         <v>5.8000000000000003E-2</v>
@@ -1841,39 +1854,39 @@
         <v>0.6</v>
       </c>
       <c r="K23">
-        <v>3.0599999999999999E-2</v>
+        <v>1.2703974E-2</v>
       </c>
       <c r="L23">
-        <v>7.6829999999999998</v>
+        <v>20.322141240000001</v>
       </c>
       <c r="M23">
-        <v>8.0879999999999992</v>
+        <v>14.51748441</v>
       </c>
       <c r="N23">
         <v>3.6</v>
       </c>
       <c r="O23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P23">
-        <v>1E+100</v>
+        <v>9.5714285710000002</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B24">
-        <v>19750</v>
+        <v>30933</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
+        <v>53</v>
+      </c>
+      <c r="E24" s="1">
+        <v>43982</v>
       </c>
       <c r="F24">
         <v>5.8000000000000003E-2</v>
@@ -1891,39 +1904,39 @@
         <v>0.6</v>
       </c>
       <c r="K24">
-        <v>3.0599999999999999E-2</v>
+        <v>3.0170533999999999E-2</v>
       </c>
       <c r="L24">
-        <v>7.6829999999999998</v>
+        <v>5.3423641159999997</v>
       </c>
       <c r="M24">
-        <v>8.0879999999999992</v>
+        <v>30.329555589999998</v>
       </c>
       <c r="N24">
         <v>3.6</v>
       </c>
       <c r="O24" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="P24">
-        <v>1E+100</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B25">
-        <v>612547</v>
+        <v>4038</v>
       </c>
       <c r="C25">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>1898</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>43982</v>
       </c>
       <c r="F25">
         <v>5.8000000000000003E-2</v>
@@ -1941,39 +1954,39 @@
         <v>0.6</v>
       </c>
       <c r="K25">
-        <v>2.29495788178571E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L25">
-        <v>5.64600260812208</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M25">
-        <v>47.211982932379001</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N25">
         <v>3.6</v>
       </c>
       <c r="O25" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="P25">
-        <v>204.642857142857</v>
+        <v>1E+100</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26">
-        <v>5219</v>
+        <v>19750</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="E26" s="1">
+        <v>43982</v>
       </c>
       <c r="F26">
         <v>5.8000000000000003E-2</v>
@@ -2003,7 +2016,7 @@
         <v>3.6</v>
       </c>
       <c r="O26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P26">
         <v>1E+100</v>
@@ -2011,69 +2024,69 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27">
-        <v>9462</v>
+        <v>612547</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E27" s="1">
+        <v>43982</v>
+      </c>
+      <c r="F27">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G27">
+        <v>0.2</v>
+      </c>
+      <c r="H27">
+        <v>0.01</v>
+      </c>
+      <c r="I27">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J27">
+        <v>0.6</v>
+      </c>
+      <c r="K27">
+        <v>2.2949579000000001E-2</v>
+      </c>
+      <c r="L27">
+        <v>5.6460026079999999</v>
+      </c>
+      <c r="M27">
+        <v>47.211982929999998</v>
+      </c>
+      <c r="N27">
+        <v>3.6</v>
+      </c>
+      <c r="O27" t="s">
         <v>17</v>
       </c>
-      <c r="F27">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G27">
-        <v>0.2</v>
-      </c>
-      <c r="H27">
-        <v>0.01</v>
-      </c>
-      <c r="I27">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J27">
-        <v>0.6</v>
-      </c>
-      <c r="K27">
-        <v>4.1736165999999998E-2</v>
-      </c>
-      <c r="L27">
-        <v>3.5596436530000002</v>
-      </c>
-      <c r="M27">
-        <v>0.98320081599999998</v>
-      </c>
-      <c r="N27">
-        <v>3.6</v>
-      </c>
-      <c r="O27" t="s">
-        <v>33</v>
-      </c>
       <c r="P27">
-        <v>239.2142857</v>
+        <v>204.64285709999999</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28">
-        <v>8178</v>
+        <v>5219</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>20</v>
-      </c>
-      <c r="E28" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>43982</v>
       </c>
       <c r="F28">
         <v>5.8000000000000003E-2</v>
@@ -2091,19 +2104,19 @@
         <v>0.6</v>
       </c>
       <c r="K28">
-        <v>3.3660158000000003E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L28">
-        <v>5.8279078269999998</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M28">
-        <v>12.741711929999999</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N28">
         <v>3.6</v>
       </c>
       <c r="O28" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P28">
         <v>1E+100</v>
@@ -2111,19 +2124,19 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29">
-        <v>35016</v>
+        <v>9462</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>48</v>
-      </c>
-      <c r="E29" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>43982</v>
       </c>
       <c r="F29">
         <v>5.8000000000000003E-2</v>
@@ -2141,39 +2154,39 @@
         <v>0.6</v>
       </c>
       <c r="K29">
-        <v>3.0599999999999999E-2</v>
+        <v>4.1736165999999998E-2</v>
       </c>
       <c r="L29">
-        <v>7.6829999999999998</v>
+        <v>3.5596436530000002</v>
       </c>
       <c r="M29">
-        <v>8.0879999999999992</v>
+        <v>0.98320081599999998</v>
       </c>
       <c r="N29">
         <v>3.6</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="P29">
-        <v>1E+100</v>
+        <v>239.2142857</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B30">
-        <v>15141</v>
+        <v>8178</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>22</v>
-      </c>
-      <c r="E30" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E30" s="1">
+        <v>43982</v>
       </c>
       <c r="F30">
         <v>5.8000000000000003E-2</v>
@@ -2191,39 +2204,39 @@
         <v>0.6</v>
       </c>
       <c r="K30">
-        <v>2.9629965000000001E-2</v>
+        <v>3.3660158000000003E-2</v>
       </c>
       <c r="L30">
-        <v>5.7922120780000004</v>
+        <v>5.8279078269999998</v>
       </c>
       <c r="M30">
-        <v>17.390542580000002</v>
+        <v>12.741711929999999</v>
       </c>
       <c r="N30">
         <v>3.6</v>
       </c>
       <c r="O30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P30">
-        <v>172.85714290000001</v>
+        <v>1E+100</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B31">
-        <v>7667</v>
+        <v>35016</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>17</v>
+        <v>48</v>
+      </c>
+      <c r="E31" s="1">
+        <v>43982</v>
       </c>
       <c r="F31">
         <v>5.8000000000000003E-2</v>
@@ -2253,7 +2266,7 @@
         <v>3.6</v>
       </c>
       <c r="O31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P31">
         <v>1E+100</v>
@@ -2261,19 +2274,19 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B32">
-        <v>6737</v>
+        <v>15141</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="E32" s="1">
+        <v>43982</v>
       </c>
       <c r="F32">
         <v>5.8000000000000003E-2</v>
@@ -2291,39 +2304,39 @@
         <v>0.6</v>
       </c>
       <c r="K32">
-        <v>2.6663023000000001E-2</v>
+        <v>2.9629965000000001E-2</v>
       </c>
       <c r="L32">
-        <v>6.9413917429999996</v>
+        <v>5.7922120780000004</v>
       </c>
       <c r="M32">
-        <v>8.4026394829999997</v>
+        <v>17.390542580000002</v>
       </c>
       <c r="N32">
         <v>3.6</v>
       </c>
       <c r="O32" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="P32">
-        <v>53.857142860000003</v>
+        <v>172.85714290000001</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B33">
-        <v>27776</v>
+        <v>7667</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>60</v>
-      </c>
-      <c r="E33" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>43982</v>
       </c>
       <c r="F33">
         <v>5.8000000000000003E-2</v>
@@ -2341,30 +2354,30 @@
         <v>0.6</v>
       </c>
       <c r="K33">
-        <v>6.9645976500508897E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L33">
-        <v>4.1534982720409896</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M33">
-        <v>10.9037797929169</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N33">
         <v>3.6</v>
       </c>
       <c r="O33" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="P33">
-        <v>14.5714285714286</v>
+        <v>1E+100</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34">
-        <v>8409</v>
+        <v>6737</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2372,8 +2385,8 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" t="s">
-        <v>17</v>
+      <c r="E34" s="1">
+        <v>43982</v>
       </c>
       <c r="F34">
         <v>5.8000000000000003E-2</v>
@@ -2391,39 +2404,39 @@
         <v>0.6</v>
       </c>
       <c r="K34">
-        <v>9.5012598977172093E-3</v>
+        <v>2.6663023000000001E-2</v>
       </c>
       <c r="L34">
-        <v>2.4163263272847799</v>
+        <v>6.9413917429999996</v>
       </c>
       <c r="M34">
-        <v>29.086768300890999</v>
+        <v>8.4026394829999997</v>
       </c>
       <c r="N34">
         <v>3.6</v>
       </c>
       <c r="O34" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="P34">
-        <v>6.8571428571428603</v>
+        <v>53.857142860000003</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35">
+        <v>27776</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>60</v>
       </c>
-      <c r="B35">
-        <v>8793</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>37</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
+      <c r="E35" s="1">
+        <v>43982</v>
       </c>
       <c r="F35">
         <v>5.8000000000000003E-2</v>
@@ -2441,89 +2454,89 @@
         <v>0.6</v>
       </c>
       <c r="K35">
-        <v>2.76E-2</v>
+        <v>6.9645976999999998E-2</v>
       </c>
       <c r="L35">
-        <v>7.6829999999999998</v>
+        <v>4.1534982720000002</v>
       </c>
       <c r="M35">
-        <v>8.0879999999999992</v>
+        <v>10.90377979</v>
       </c>
       <c r="N35">
         <v>3.6</v>
       </c>
       <c r="O35" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="P35">
-        <v>1E+100</v>
+        <v>14.57142857</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36">
-        <v>34974</v>
+        <v>8409</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>65</v>
-      </c>
-      <c r="E36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>43982</v>
+      </c>
+      <c r="F36">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G36">
+        <v>0.2</v>
+      </c>
+      <c r="H36">
+        <v>0.01</v>
+      </c>
+      <c r="I36">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J36">
+        <v>0.6</v>
+      </c>
+      <c r="K36">
+        <v>9.5012599999999992E-3</v>
+      </c>
+      <c r="L36">
+        <v>2.4163263270000002</v>
+      </c>
+      <c r="M36">
+        <v>29.086768299999999</v>
+      </c>
+      <c r="N36">
+        <v>3.6</v>
+      </c>
+      <c r="O36" t="s">
         <v>17</v>
       </c>
-      <c r="F36">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G36">
-        <v>0.2</v>
-      </c>
-      <c r="H36">
-        <v>0.01</v>
-      </c>
-      <c r="I36">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J36">
-        <v>0.6</v>
-      </c>
-      <c r="K36">
-        <v>3.6980710999999999E-2</v>
-      </c>
-      <c r="L36">
-        <v>5.2770847769999998</v>
-      </c>
-      <c r="M36">
-        <v>14.43647743</v>
-      </c>
-      <c r="N36">
-        <v>3.6</v>
-      </c>
-      <c r="O36" t="s">
-        <v>61</v>
-      </c>
       <c r="P36">
-        <v>1E+100</v>
+        <v>6.8571428570000004</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B37">
-        <v>40997</v>
+        <v>8793</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>129</v>
-      </c>
-      <c r="E37" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="E37" s="1">
+        <v>43982</v>
       </c>
       <c r="F37">
         <v>5.8000000000000003E-2</v>
@@ -2541,7 +2554,7 @@
         <v>0.6</v>
       </c>
       <c r="K37">
-        <v>3.0599999999999999E-2</v>
+        <v>2.76E-2</v>
       </c>
       <c r="L37">
         <v>7.6829999999999998</v>
@@ -2553,7 +2566,7 @@
         <v>3.6</v>
       </c>
       <c r="O37" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="P37">
         <v>1E+100</v>
@@ -2561,19 +2574,19 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38">
-        <v>11221</v>
+        <v>34974</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>33</v>
-      </c>
-      <c r="E38" t="s">
-        <v>17</v>
+        <v>65</v>
+      </c>
+      <c r="E38" s="1">
+        <v>43982</v>
       </c>
       <c r="F38">
         <v>5.8000000000000003E-2</v>
@@ -2591,19 +2604,19 @@
         <v>0.6</v>
       </c>
       <c r="K38">
-        <v>3.3599999999999998E-2</v>
+        <v>3.6980710999999999E-2</v>
       </c>
       <c r="L38">
-        <v>6.8220000000000001</v>
+        <v>5.2770847769999998</v>
       </c>
       <c r="M38">
-        <v>8.9132999999999996</v>
+        <v>14.43647743</v>
       </c>
       <c r="N38">
         <v>3.6</v>
       </c>
       <c r="O38" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="P38">
         <v>1E+100</v>
@@ -2611,19 +2624,19 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B39">
-        <v>6121</v>
+        <v>40997</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>17</v>
+        <v>129</v>
+      </c>
+      <c r="E39" s="1">
+        <v>43982</v>
       </c>
       <c r="F39">
         <v>5.8000000000000003E-2</v>
@@ -2653,7 +2666,7 @@
         <v>3.6</v>
       </c>
       <c r="O39" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P39">
         <v>1E+100</v>
@@ -2661,19 +2674,19 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B40">
-        <v>65534</v>
+        <v>11221</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>101</v>
-      </c>
-      <c r="E40" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="E40" s="1">
+        <v>43982</v>
       </c>
       <c r="F40">
         <v>5.8000000000000003E-2</v>
@@ -2691,30 +2704,30 @@
         <v>0.6</v>
       </c>
       <c r="K40">
-        <v>1.13632935554242E-2</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="L40">
-        <v>7.4461166575643798</v>
+        <v>6.8220000000000001</v>
       </c>
       <c r="M40">
-        <v>20.401085810215001</v>
+        <v>8.9132999999999996</v>
       </c>
       <c r="N40">
         <v>3.6</v>
       </c>
       <c r="O40" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="P40">
-        <v>22.571428571428601</v>
+        <v>1E+100</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B41">
-        <v>2077</v>
+        <v>6121</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2722,8 +2735,8 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" t="s">
-        <v>17</v>
+      <c r="E41" s="1">
+        <v>43982</v>
       </c>
       <c r="F41">
         <v>5.8000000000000003E-2</v>
@@ -2753,7 +2766,7 @@
         <v>3.6</v>
       </c>
       <c r="O41" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P41">
         <v>1E+100</v>
@@ -2761,19 +2774,19 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B42">
-        <v>16566</v>
+        <v>65534</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D42">
-        <v>44</v>
-      </c>
-      <c r="E42" t="s">
-        <v>17</v>
+        <v>101</v>
+      </c>
+      <c r="E42" s="1">
+        <v>43982</v>
       </c>
       <c r="F42">
         <v>5.8000000000000003E-2</v>
@@ -2791,39 +2804,39 @@
         <v>0.6</v>
       </c>
       <c r="K42">
-        <v>2.7908568000000002E-2</v>
+        <v>1.1363293999999999E-2</v>
       </c>
       <c r="L42">
-        <v>7.8060582710000004</v>
+        <v>7.4461166580000002</v>
       </c>
       <c r="M42">
-        <v>7.5110472179999999</v>
+        <v>20.401085810000001</v>
       </c>
       <c r="N42">
         <v>3.6</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P42">
-        <v>1E+100</v>
+        <v>22.571428569999998</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B43">
-        <v>27739</v>
+        <v>2077</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>90</v>
-      </c>
-      <c r="E43" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>43982</v>
       </c>
       <c r="F43">
         <v>5.8000000000000003E-2</v>
@@ -2853,27 +2866,27 @@
         <v>3.6</v>
       </c>
       <c r="O43" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="P43">
-        <v>6.21428571428571</v>
+        <v>1E+100</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B44">
-        <v>15336</v>
+        <v>16566</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>41</v>
-      </c>
-      <c r="E44" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="E44" s="1">
+        <v>43982</v>
       </c>
       <c r="F44">
         <v>5.8000000000000003E-2</v>
@@ -2891,19 +2904,19 @@
         <v>0.6</v>
       </c>
       <c r="K44">
-        <v>3.0599999999999999E-2</v>
+        <v>2.7908568000000002E-2</v>
       </c>
       <c r="L44">
-        <v>7.6829999999999998</v>
+        <v>7.8060582710000004</v>
       </c>
       <c r="M44">
-        <v>8.0879999999999992</v>
+        <v>7.5110472179999999</v>
       </c>
       <c r="N44">
         <v>3.6</v>
       </c>
       <c r="O44" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="P44">
         <v>1E+100</v>
@@ -2911,19 +2924,19 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B45">
-        <v>13216</v>
+        <v>27739</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>16</v>
-      </c>
-      <c r="E45" t="s">
-        <v>17</v>
+        <v>90</v>
+      </c>
+      <c r="E45" s="1">
+        <v>43982</v>
       </c>
       <c r="F45">
         <v>5.8000000000000003E-2</v>
@@ -2941,39 +2954,39 @@
         <v>0.6</v>
       </c>
       <c r="K45">
-        <v>3.8250899380948597E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L45">
-        <v>3.6530868290668002</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M45">
-        <v>11.4791598796657</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N45">
         <v>3.6</v>
       </c>
       <c r="O45" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P45">
-        <v>0.71428571428571397</v>
+        <v>6.2142857139999998</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B46">
-        <v>4519</v>
+        <v>15336</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>17</v>
+        <v>41</v>
+      </c>
+      <c r="E46" s="1">
+        <v>43982</v>
       </c>
       <c r="F46">
         <v>5.8000000000000003E-2</v>
@@ -3003,7 +3016,7 @@
         <v>3.6</v>
       </c>
       <c r="O46" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="P46">
         <v>1E+100</v>
@@ -3011,69 +3024,69 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B47">
-        <v>6640</v>
+        <v>13216</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>6</v>
-      </c>
-      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="1">
+        <v>43982</v>
+      </c>
+      <c r="F47">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G47">
+        <v>0.2</v>
+      </c>
+      <c r="H47">
+        <v>0.01</v>
+      </c>
+      <c r="I47">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J47">
+        <v>0.6</v>
+      </c>
+      <c r="K47">
+        <v>3.8250898999999998E-2</v>
+      </c>
+      <c r="L47">
+        <v>3.6530868289999998</v>
+      </c>
+      <c r="M47">
+        <v>11.479159879999999</v>
+      </c>
+      <c r="N47">
+        <v>3.6</v>
+      </c>
+      <c r="O47" t="s">
         <v>17</v>
       </c>
-      <c r="F47">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G47">
-        <v>0.2</v>
-      </c>
-      <c r="H47">
-        <v>0.01</v>
-      </c>
-      <c r="I47">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J47">
-        <v>0.6</v>
-      </c>
-      <c r="K47">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="L47">
-        <v>7.6829999999999998</v>
-      </c>
-      <c r="M47">
-        <v>8.0879999999999992</v>
-      </c>
-      <c r="N47">
-        <v>3.6</v>
-      </c>
-      <c r="O47" t="s">
-        <v>40</v>
-      </c>
       <c r="P47">
-        <v>1E+100</v>
+        <v>0.71428571399999996</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B48">
-        <v>22041</v>
+        <v>4519</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>6</v>
-      </c>
-      <c r="E48" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>43982</v>
       </c>
       <c r="F48">
         <v>5.8000000000000003E-2</v>
@@ -3103,7 +3116,7 @@
         <v>3.6</v>
       </c>
       <c r="O48" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="P48">
         <v>1E+100</v>
@@ -3111,19 +3124,19 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B49">
-        <v>9178</v>
+        <v>6640</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>13</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="E49" s="1">
+        <v>43982</v>
       </c>
       <c r="F49">
         <v>5.8000000000000003E-2</v>
@@ -3153,7 +3166,7 @@
         <v>3.6</v>
       </c>
       <c r="O49" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P49">
         <v>1E+100</v>
@@ -3161,19 +3174,19 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B50">
-        <v>45378</v>
+        <v>22041</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>37</v>
-      </c>
-      <c r="E50" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="E50" s="1">
+        <v>43982</v>
       </c>
       <c r="F50">
         <v>5.8000000000000003E-2</v>
@@ -3191,39 +3204,39 @@
         <v>0.6</v>
       </c>
       <c r="K50">
-        <v>1.55781656670803E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L50">
-        <v>11.991636685107499</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M50">
-        <v>18.694517950823499</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N50">
         <v>3.6</v>
       </c>
       <c r="O50" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="P50">
-        <v>2.0714285714285698</v>
+        <v>1E+100</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B51">
-        <v>20301</v>
+        <v>9178</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>50</v>
-      </c>
-      <c r="E51" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="E51" s="1">
+        <v>43982</v>
       </c>
       <c r="F51">
         <v>5.8000000000000003E-2</v>
@@ -3253,7 +3266,7 @@
         <v>3.6</v>
       </c>
       <c r="O51" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="P51">
         <v>1E+100</v>
@@ -3261,19 +3274,19 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B52">
-        <v>3718</v>
+        <v>45378</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="E52" s="1">
+        <v>43982</v>
       </c>
       <c r="F52">
         <v>5.8000000000000003E-2</v>
@@ -3291,39 +3304,39 @@
         <v>0.6</v>
       </c>
       <c r="K52">
-        <v>3.0599999999999999E-2</v>
+        <v>1.5578165999999999E-2</v>
       </c>
       <c r="L52">
-        <v>7.6829999999999998</v>
+        <v>11.99163669</v>
       </c>
       <c r="M52">
-        <v>8.0879999999999992</v>
+        <v>18.694517950000002</v>
       </c>
       <c r="N52">
         <v>3.6</v>
       </c>
       <c r="O52" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="P52">
-        <v>1E+100</v>
+        <v>2.0714285710000002</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B53">
-        <v>11982</v>
+        <v>20301</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
-        <v>17</v>
+        <v>50</v>
+      </c>
+      <c r="E53" s="1">
+        <v>43982</v>
       </c>
       <c r="F53">
         <v>5.8000000000000003E-2</v>
@@ -3341,39 +3354,39 @@
         <v>0.6</v>
       </c>
       <c r="K53">
-        <v>4.0216495626894298E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L53">
-        <v>8.2132762325312303</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M53">
-        <v>9.1775961873475609</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N53">
         <v>3.6</v>
       </c>
       <c r="O53" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="P53">
-        <v>9.8571428571428594</v>
+        <v>1E+100</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B54">
-        <v>21374</v>
+        <v>3718</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>34</v>
-      </c>
-      <c r="E54" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>43982</v>
       </c>
       <c r="F54">
         <v>5.8000000000000003E-2</v>
@@ -3403,7 +3416,7 @@
         <v>3.6</v>
       </c>
       <c r="O54" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="P54">
         <v>1E+100</v>
@@ -3411,10 +3424,10 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B55">
-        <v>9178</v>
+        <v>11982</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3422,8 +3435,8 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" t="s">
-        <v>17</v>
+      <c r="E55" s="1">
+        <v>43982</v>
       </c>
       <c r="F55">
         <v>5.8000000000000003E-2</v>
@@ -3441,39 +3454,39 @@
         <v>0.6</v>
       </c>
       <c r="K55">
-        <v>3.0599999999999999E-2</v>
+        <v>4.0216495999999997E-2</v>
       </c>
       <c r="L55">
-        <v>7.6829999999999998</v>
+        <v>8.2132762330000002</v>
       </c>
       <c r="M55">
-        <v>8.0879999999999992</v>
+        <v>9.1775961870000007</v>
       </c>
       <c r="N55">
         <v>3.6</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P55">
-        <v>1E+100</v>
+        <v>9.8571428569999995</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B56">
-        <v>2640</v>
+        <v>21374</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="E56" s="1">
+        <v>43982</v>
       </c>
       <c r="F56">
         <v>5.8000000000000003E-2</v>
@@ -3503,7 +3516,7 @@
         <v>3.6</v>
       </c>
       <c r="O56" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="P56">
         <v>1E+100</v>
@@ -3511,19 +3524,19 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B57">
-        <v>11225</v>
+        <v>9178</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>32</v>
-      </c>
-      <c r="E57" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>43982</v>
       </c>
       <c r="F57">
         <v>5.8000000000000003E-2</v>
@@ -3541,39 +3554,39 @@
         <v>0.6</v>
       </c>
       <c r="K57">
-        <v>1.6163787999999998E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L57">
-        <v>4.9995845829999999</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M57">
-        <v>11.78338213</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N57">
         <v>3.6</v>
       </c>
       <c r="O57" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="P57">
-        <v>3.4285714289999998</v>
+        <v>1E+100</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B58">
-        <v>17626</v>
+        <v>2640</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>31</v>
-      </c>
-      <c r="E58" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>43982</v>
       </c>
       <c r="F58">
         <v>5.8000000000000003E-2</v>
@@ -3591,19 +3604,19 @@
         <v>0.6</v>
       </c>
       <c r="K58">
-        <v>3.3660158000000003E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L58">
-        <v>5.8279078269999998</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M58">
-        <v>12.741711929999999</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N58">
         <v>3.6</v>
       </c>
       <c r="O58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P58">
         <v>1E+100</v>
@@ -3611,19 +3624,19 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B59">
-        <v>34976</v>
+        <v>11225</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>56</v>
-      </c>
-      <c r="E59" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="E59" s="1">
+        <v>43982</v>
       </c>
       <c r="F59">
         <v>5.8000000000000003E-2</v>
@@ -3641,39 +3654,39 @@
         <v>0.6</v>
       </c>
       <c r="K59">
-        <v>3.3900478482115998E-2</v>
+        <v>1.6163787999999998E-2</v>
       </c>
       <c r="L59">
-        <v>4.1665517809424504</v>
+        <v>4.9995845829999999</v>
       </c>
       <c r="M59">
-        <v>11.597316133374299</v>
+        <v>11.78338213</v>
       </c>
       <c r="N59">
         <v>3.6</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="P59">
-        <v>7.6428571428571397</v>
+        <v>3.4285714289999998</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B60">
-        <v>32843</v>
+        <v>17626</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>64</v>
-      </c>
-      <c r="E60" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="E60" s="1">
+        <v>43982</v>
       </c>
       <c r="F60">
         <v>5.8000000000000003E-2</v>
@@ -3691,19 +3704,19 @@
         <v>0.6</v>
       </c>
       <c r="K60">
-        <v>3.0599999999999999E-2</v>
+        <v>3.3660158000000003E-2</v>
       </c>
       <c r="L60">
-        <v>7.6829999999999998</v>
+        <v>5.8279078269999998</v>
       </c>
       <c r="M60">
-        <v>8.0879999999999992</v>
+        <v>12.741711929999999</v>
       </c>
       <c r="N60">
         <v>3.6</v>
       </c>
       <c r="O60" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P60">
         <v>1E+100</v>
@@ -3711,19 +3724,19 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B61">
-        <v>6711</v>
+        <v>34976</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="E61" s="1">
+        <v>43982</v>
       </c>
       <c r="F61">
         <v>5.8000000000000003E-2</v>
@@ -3741,39 +3754,39 @@
         <v>0.6</v>
       </c>
       <c r="K61">
-        <v>2.17794666087846E-2</v>
+        <v>3.3900477999999998E-2</v>
       </c>
       <c r="L61">
-        <v>2.3971022734388701</v>
+        <v>4.1665517809999999</v>
       </c>
       <c r="M61">
-        <v>37.234675090901199</v>
+        <v>11.597316129999999</v>
       </c>
       <c r="N61">
         <v>3.6</v>
       </c>
       <c r="O61" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P61">
-        <v>0.214285714285714</v>
+        <v>7.6428571429999996</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B62">
-        <v>1576</v>
+        <v>32843</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>21</v>
-      </c>
-      <c r="E62" t="s">
-        <v>17</v>
+        <v>64</v>
+      </c>
+      <c r="E62" s="1">
+        <v>43982</v>
       </c>
       <c r="F62">
         <v>5.8000000000000003E-2</v>
@@ -3803,7 +3816,7 @@
         <v>3.6</v>
       </c>
       <c r="O62" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="P62">
         <v>1E+100</v>
@@ -3811,19 +3824,19 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B63">
-        <v>45093</v>
+        <v>6711</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>69</v>
-      </c>
-      <c r="E63" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>43982</v>
       </c>
       <c r="F63">
         <v>5.8000000000000003E-2</v>
@@ -3841,39 +3854,39 @@
         <v>0.6</v>
       </c>
       <c r="K63">
-        <v>2.4041680585820801E-2</v>
+        <v>2.1779467E-2</v>
       </c>
       <c r="L63">
-        <v>9.25181402214149</v>
+        <v>2.3971022729999998</v>
       </c>
       <c r="M63">
-        <v>19.276737191849701</v>
+        <v>37.234675090000003</v>
       </c>
       <c r="N63">
         <v>3.6</v>
       </c>
       <c r="O63" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="P63">
-        <v>11.214285714285699</v>
+        <v>0.21428571399999999</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B64">
-        <v>12517</v>
+        <v>1576</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>18</v>
-      </c>
-      <c r="E64" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="E64" s="1">
+        <v>43982</v>
       </c>
       <c r="F64">
         <v>5.8000000000000003E-2</v>
@@ -3903,7 +3916,7 @@
         <v>3.6</v>
       </c>
       <c r="O64" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="P64">
         <v>1E+100</v>
@@ -3911,19 +3924,19 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="B65">
-        <v>12017</v>
+        <v>45093</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>17</v>
+        <v>69</v>
+      </c>
+      <c r="E65" s="1">
+        <v>43982</v>
       </c>
       <c r="F65">
         <v>5.8000000000000003E-2</v>
@@ -3941,39 +3954,39 @@
         <v>0.6</v>
       </c>
       <c r="K65">
-        <v>9.0652609999999998E-3</v>
+        <v>2.4041680999999999E-2</v>
       </c>
       <c r="L65">
-        <v>3.417739283</v>
+        <v>9.2518140219999996</v>
       </c>
       <c r="M65">
-        <v>33.081355459999997</v>
+        <v>19.276737189999999</v>
       </c>
       <c r="N65">
         <v>3.6</v>
       </c>
       <c r="O65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P65">
-        <v>5.0714285710000002</v>
+        <v>11.21428571</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B66">
-        <v>16219</v>
+        <v>12517</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>96</v>
-      </c>
-      <c r="E66" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="E66" s="1">
+        <v>43982</v>
       </c>
       <c r="F66">
         <v>5.8000000000000003E-2</v>
@@ -3991,19 +4004,19 @@
         <v>0.6</v>
       </c>
       <c r="K66">
-        <v>3.3599999999999998E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L66">
-        <v>6.8220000000000001</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M66">
-        <v>8.9132999999999996</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N66">
         <v>3.6</v>
       </c>
       <c r="O66" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="P66">
         <v>1E+100</v>
@@ -4011,19 +4024,19 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B67">
-        <v>62019</v>
+        <v>12017</v>
       </c>
       <c r="C67">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>162</v>
-      </c>
-      <c r="E67" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>43982</v>
       </c>
       <c r="F67">
         <v>5.8000000000000003E-2</v>
@@ -4041,39 +4054,39 @@
         <v>0.6</v>
       </c>
       <c r="K67">
-        <v>1.07922881178664E-2</v>
+        <v>9.0652609999999998E-3</v>
       </c>
       <c r="L67">
-        <v>9.9641448395076608</v>
+        <v>3.417739283</v>
       </c>
       <c r="M67">
-        <v>61.9058071350739</v>
+        <v>33.081355459999997</v>
       </c>
       <c r="N67">
         <v>3.6</v>
       </c>
       <c r="O67" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P67">
-        <v>16.6428571428571</v>
+        <v>5.0714285710000002</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B68">
-        <v>17479</v>
+        <v>16219</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>31</v>
-      </c>
-      <c r="E68" t="s">
-        <v>17</v>
+        <v>96</v>
+      </c>
+      <c r="E68" s="1">
+        <v>43982</v>
       </c>
       <c r="F68">
         <v>5.8000000000000003E-2</v>
@@ -4091,39 +4104,39 @@
         <v>0.6</v>
       </c>
       <c r="K68">
-        <v>1.6750449966961699E-2</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="L68">
-        <v>4.5723540433302299</v>
+        <v>6.8220000000000001</v>
       </c>
       <c r="M68">
-        <v>0.92385450253879298</v>
+        <v>8.9132999999999996</v>
       </c>
       <c r="N68">
         <v>3.6</v>
       </c>
       <c r="O68" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P68">
-        <v>12.714285714285699</v>
+        <v>1E+100</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B69">
-        <v>10206</v>
+        <v>62019</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D69">
-        <v>32</v>
-      </c>
-      <c r="E69" t="s">
-        <v>17</v>
+        <v>162</v>
+      </c>
+      <c r="E69" s="1">
+        <v>43982</v>
       </c>
       <c r="F69">
         <v>5.8000000000000003E-2</v>
@@ -4141,89 +4154,89 @@
         <v>0.6</v>
       </c>
       <c r="K69">
-        <v>3.0599999999999999E-2</v>
+        <v>1.0792288000000001E-2</v>
       </c>
       <c r="L69">
-        <v>7.6829999999999998</v>
+        <v>9.9641448399999994</v>
       </c>
       <c r="M69">
-        <v>8.0879999999999992</v>
+        <v>61.90580714</v>
       </c>
       <c r="N69">
         <v>3.6</v>
       </c>
       <c r="O69" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P69">
-        <v>1E+100</v>
+        <v>16.64285714</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B70">
-        <v>5156</v>
+        <v>17479</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
+        <v>31</v>
+      </c>
+      <c r="E70" s="1">
+        <v>43982</v>
+      </c>
+      <c r="F70">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G70">
+        <v>0.2</v>
+      </c>
+      <c r="H70">
+        <v>0.01</v>
+      </c>
+      <c r="I70">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J70">
+        <v>0.6</v>
+      </c>
+      <c r="K70">
+        <v>1.675045E-2</v>
+      </c>
+      <c r="L70">
+        <v>4.5723540429999998</v>
+      </c>
+      <c r="M70">
+        <v>0.92385450300000005</v>
+      </c>
+      <c r="N70">
+        <v>3.6</v>
+      </c>
+      <c r="O70" t="s">
         <v>18</v>
       </c>
-      <c r="E70" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G70">
-        <v>0.2</v>
-      </c>
-      <c r="H70">
-        <v>0.01</v>
-      </c>
-      <c r="I70">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J70">
-        <v>0.6</v>
-      </c>
-      <c r="K70">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="L70">
-        <v>7.6829999999999998</v>
-      </c>
-      <c r="M70">
-        <v>8.0879999999999992</v>
-      </c>
-      <c r="N70">
-        <v>3.6</v>
-      </c>
-      <c r="O70" t="s">
-        <v>36</v>
-      </c>
       <c r="P70">
-        <v>1E+100</v>
+        <v>12.71428571</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B71">
-        <v>4001</v>
+        <v>10206</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="E71" s="1">
+        <v>43982</v>
       </c>
       <c r="F71">
         <v>5.8000000000000003E-2</v>
@@ -4253,7 +4266,7 @@
         <v>3.6</v>
       </c>
       <c r="O71" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="P71">
         <v>1E+100</v>
@@ -4261,19 +4274,19 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="B72">
-        <v>232491</v>
+        <v>5156</v>
       </c>
       <c r="C72">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>526</v>
-      </c>
-      <c r="E72" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="E72" s="1">
+        <v>43982</v>
       </c>
       <c r="F72">
         <v>5.8000000000000003E-2</v>
@@ -4291,39 +4304,39 @@
         <v>0.6</v>
       </c>
       <c r="K72">
-        <v>3.5174526760962603E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L72">
-        <v>3.9595611072248098</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M72">
-        <v>31.9950332782781</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N72">
         <v>3.6</v>
       </c>
       <c r="O72" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="P72">
-        <v>145.642857142857</v>
+        <v>1E+100</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B73">
-        <v>17151</v>
+        <v>4001</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>63</v>
-      </c>
-      <c r="E73" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>43982</v>
       </c>
       <c r="F73">
         <v>5.8000000000000003E-2</v>
@@ -4341,39 +4354,39 @@
         <v>0.6</v>
       </c>
       <c r="K73">
-        <v>8.0859183420085899E-4</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L73">
-        <v>4.4134143222608504</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M73">
-        <v>0.452892712771786</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N73">
         <v>3.6</v>
       </c>
       <c r="O73" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="P73">
-        <v>244.57142857142901</v>
+        <v>1E+100</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="B74">
-        <v>3429</v>
+        <v>232491</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>17</v>
+        <v>526</v>
+      </c>
+      <c r="E74" s="1">
+        <v>43982</v>
       </c>
       <c r="F74">
         <v>5.8000000000000003E-2</v>
@@ -4391,39 +4404,39 @@
         <v>0.6</v>
       </c>
       <c r="K74">
-        <v>3.0599999999999999E-2</v>
+        <v>3.5174526999999997E-2</v>
       </c>
       <c r="L74">
-        <v>7.6829999999999998</v>
+        <v>3.9595611069999999</v>
       </c>
       <c r="M74">
-        <v>8.0879999999999992</v>
+        <v>31.995033280000001</v>
       </c>
       <c r="N74">
         <v>3.6</v>
       </c>
       <c r="O74" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="P74">
-        <v>1E+100</v>
+        <v>145.64285709999999</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B75">
-        <v>3146</v>
+        <v>17151</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="E75" s="1">
+        <v>43982</v>
       </c>
       <c r="F75">
         <v>5.8000000000000003E-2</v>
@@ -4441,39 +4454,39 @@
         <v>0.6</v>
       </c>
       <c r="K75">
-        <v>4.1736165999999998E-2</v>
+        <v>8.0859200000000001E-4</v>
       </c>
       <c r="L75">
-        <v>3.5596436530000002</v>
+        <v>4.4134143220000004</v>
       </c>
       <c r="M75">
-        <v>0.98320081599999998</v>
+        <v>0.452892713</v>
       </c>
       <c r="N75">
         <v>3.6</v>
       </c>
       <c r="O75" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="P75">
-        <v>239.2142857</v>
+        <v>244.57142859999999</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B76">
-        <v>16628</v>
+        <v>3429</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>20</v>
-      </c>
-      <c r="E76" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>43982</v>
       </c>
       <c r="F76">
         <v>5.8000000000000003E-2</v>
@@ -4503,7 +4516,7 @@
         <v>3.6</v>
       </c>
       <c r="O76" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="P76">
         <v>1E+100</v>
@@ -4511,19 +4524,19 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="B77">
-        <v>11708</v>
+        <v>3146</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>40</v>
-      </c>
-      <c r="E77" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>43982</v>
       </c>
       <c r="F77">
         <v>5.8000000000000003E-2</v>
@@ -4541,69 +4554,69 @@
         <v>0.6</v>
       </c>
       <c r="K77">
-        <v>3.0599999999999999E-2</v>
+        <v>4.1736165999999998E-2</v>
       </c>
       <c r="L77">
-        <v>7.6829999999999998</v>
+        <v>3.5596436530000002</v>
       </c>
       <c r="M77">
-        <v>8.0879999999999992</v>
+        <v>0.98320081599999998</v>
       </c>
       <c r="N77">
         <v>3.6</v>
       </c>
       <c r="O77" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P77">
-        <v>1E+100</v>
+        <v>239.2142857</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B78">
-        <v>4063</v>
+        <v>16628</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="1">
+        <v>43982</v>
+      </c>
+      <c r="F78">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G78">
+        <v>0.2</v>
+      </c>
+      <c r="H78">
+        <v>0.01</v>
+      </c>
+      <c r="I78">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J78">
+        <v>0.6</v>
+      </c>
+      <c r="K78">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="L78">
+        <v>7.6829999999999998</v>
+      </c>
+      <c r="M78">
+        <v>8.0879999999999992</v>
+      </c>
+      <c r="N78">
+        <v>3.6</v>
+      </c>
+      <c r="O78" t="s">
         <v>17</v>
-      </c>
-      <c r="F78">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G78">
-        <v>0.2</v>
-      </c>
-      <c r="H78">
-        <v>0.01</v>
-      </c>
-      <c r="I78">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J78">
-        <v>0.6</v>
-      </c>
-      <c r="K78">
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="L78">
-        <v>6.8220000000000001</v>
-      </c>
-      <c r="M78">
-        <v>8.9132999999999996</v>
-      </c>
-      <c r="N78">
-        <v>3.6</v>
-      </c>
-      <c r="O78" t="s">
-        <v>22</v>
       </c>
       <c r="P78">
         <v>1E+100</v>
@@ -4611,19 +4624,19 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="B79">
-        <v>5595</v>
+        <v>11708</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>8</v>
-      </c>
-      <c r="E79" t="s">
-        <v>17</v>
+        <v>40</v>
+      </c>
+      <c r="E79" s="1">
+        <v>43982</v>
       </c>
       <c r="F79">
         <v>5.8000000000000003E-2</v>
@@ -4653,7 +4666,7 @@
         <v>3.6</v>
       </c>
       <c r="O79" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="P79">
         <v>1E+100</v>
@@ -4661,19 +4674,19 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B80">
-        <v>18906</v>
+        <v>4063</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80">
-        <v>25</v>
-      </c>
-      <c r="E80" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>43982</v>
       </c>
       <c r="F80">
         <v>5.8000000000000003E-2</v>
@@ -4691,39 +4704,39 @@
         <v>0.6</v>
       </c>
       <c r="K80">
-        <v>4.7121184622964003E-2</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="L80">
-        <v>1.7185242801093099</v>
+        <v>6.8220000000000001</v>
       </c>
       <c r="M80">
-        <v>16.398095697229099</v>
+        <v>8.9132999999999996</v>
       </c>
       <c r="N80">
         <v>3.6</v>
       </c>
       <c r="O80" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="P80">
-        <v>7.1428571428571397E-2</v>
+        <v>1E+100</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B81">
-        <v>4727</v>
+        <v>5595</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="E81" s="1">
+        <v>43982</v>
       </c>
       <c r="F81">
         <v>5.8000000000000003E-2</v>
@@ -4741,39 +4754,39 @@
         <v>0.6</v>
       </c>
       <c r="K81">
-        <v>1.06898638636226E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L81">
-        <v>8.3178930739496604</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M81">
-        <v>10.7961696957536</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N81">
         <v>3.6</v>
       </c>
       <c r="O81" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="P81">
-        <v>1.5</v>
+        <v>1E+100</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B82">
-        <v>25881</v>
+        <v>18906</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>53</v>
-      </c>
-      <c r="E82" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="E82" s="1">
+        <v>43982</v>
       </c>
       <c r="F82">
         <v>5.8000000000000003E-2</v>
@@ -4791,39 +4804,39 @@
         <v>0.6</v>
       </c>
       <c r="K82">
-        <v>3.6600000000000001E-2</v>
+        <v>4.7121185000000003E-2</v>
       </c>
       <c r="L82">
-        <v>7.6829999999999998</v>
+        <v>1.71852428</v>
       </c>
       <c r="M82">
-        <v>8.0879999999999992</v>
+        <v>16.398095699999999</v>
       </c>
       <c r="N82">
         <v>3.6</v>
       </c>
       <c r="O82" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P82">
-        <v>1E+100</v>
+        <v>7.1428570999999996E-2</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="B83">
-        <v>139000</v>
+        <v>4727</v>
       </c>
       <c r="C83">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>266</v>
-      </c>
-      <c r="E83" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>43982</v>
       </c>
       <c r="F83">
         <v>5.8000000000000003E-2</v>
@@ -4841,39 +4854,39 @@
         <v>0.6</v>
       </c>
       <c r="K83">
-        <v>1.00831972865521E-2</v>
+        <v>1.0689864E-2</v>
       </c>
       <c r="L83">
-        <v>8.3176650498921294</v>
+        <v>8.3178930740000006</v>
       </c>
       <c r="M83">
-        <v>0.91822374509312898</v>
+        <v>10.7961697</v>
       </c>
       <c r="N83">
         <v>3.6</v>
       </c>
       <c r="O83" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="P83">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B84">
-        <v>90313</v>
+        <v>25881</v>
       </c>
       <c r="C84">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>160</v>
-      </c>
-      <c r="E84" t="s">
-        <v>17</v>
+        <v>53</v>
+      </c>
+      <c r="E84" s="1">
+        <v>43982</v>
       </c>
       <c r="F84">
         <v>5.8000000000000003E-2</v>
@@ -4891,39 +4904,39 @@
         <v>0.6</v>
       </c>
       <c r="K84">
-        <v>2.4180420470819398E-2</v>
+        <v>3.6600000000000001E-2</v>
       </c>
       <c r="L84">
-        <v>3.2398107573623798</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M84">
-        <v>17.249344588714798</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N84">
         <v>3.6</v>
       </c>
       <c r="O84" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="P84">
-        <v>56.928571428571402</v>
+        <v>1E+100</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B85">
-        <v>103750</v>
+        <v>139000</v>
       </c>
       <c r="C85">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D85">
-        <v>200</v>
-      </c>
-      <c r="E85" t="s">
-        <v>17</v>
+        <v>266</v>
+      </c>
+      <c r="E85" s="1">
+        <v>43982</v>
       </c>
       <c r="F85">
         <v>5.8000000000000003E-2</v>
@@ -4941,39 +4954,39 @@
         <v>0.6</v>
       </c>
       <c r="K85">
-        <v>5.1591802535585998E-2</v>
+        <v>1.0083197E-2</v>
       </c>
       <c r="L85">
-        <v>1.5979063664883999</v>
+        <v>8.3176650500000004</v>
       </c>
       <c r="M85">
-        <v>0.83135001987114698</v>
+        <v>0.91822374500000004</v>
       </c>
       <c r="N85">
         <v>3.6</v>
       </c>
       <c r="O85" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="P85">
-        <v>290.71428571428601</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B86">
-        <v>13705</v>
+        <v>90313</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D86">
-        <v>20</v>
-      </c>
-      <c r="E86" t="s">
-        <v>17</v>
+        <v>160</v>
+      </c>
+      <c r="E86" s="1">
+        <v>43982</v>
       </c>
       <c r="F86">
         <v>5.8000000000000003E-2</v>
@@ -4991,13 +5004,13 @@
         <v>0.6</v>
       </c>
       <c r="K86">
-        <v>1.03775123973519E-2</v>
+        <v>2.4180420000000001E-2</v>
       </c>
       <c r="L86">
-        <v>6.49856045319682</v>
+        <v>3.2398107569999999</v>
       </c>
       <c r="M86">
-        <v>20.496198364921401</v>
+        <v>17.24934459</v>
       </c>
       <c r="N86">
         <v>3.6</v>
@@ -5006,24 +5019,24 @@
         <v>56</v>
       </c>
       <c r="P86">
-        <v>3.5714285714285698</v>
+        <v>56.928571429999998</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="B87">
-        <v>9667</v>
+        <v>103750</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D87">
-        <v>37</v>
-      </c>
-      <c r="E87" t="s">
-        <v>17</v>
+        <v>200</v>
+      </c>
+      <c r="E87" s="1">
+        <v>43982</v>
       </c>
       <c r="F87">
         <v>5.8000000000000003E-2</v>
@@ -5041,39 +5054,39 @@
         <v>0.6</v>
       </c>
       <c r="K87">
-        <v>2.7908568000000002E-2</v>
+        <v>5.1591802999999999E-2</v>
       </c>
       <c r="L87">
-        <v>7.8060582710000004</v>
+        <v>1.5979063659999999</v>
       </c>
       <c r="M87">
-        <v>7.5110472179999999</v>
+        <v>0.83135002000000002</v>
       </c>
       <c r="N87">
         <v>3.6</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="P87">
-        <v>1E+100</v>
+        <v>290.7142857</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B88">
-        <v>3525</v>
+        <v>13705</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E88" s="1">
+        <v>43982</v>
       </c>
       <c r="F88">
         <v>5.8000000000000003E-2</v>
@@ -5091,13 +5104,13 @@
         <v>0.6</v>
       </c>
       <c r="K88">
-        <v>3.0599999999999999E-2</v>
+        <v>1.0377512E-2</v>
       </c>
       <c r="L88">
-        <v>7.6829999999999998</v>
+        <v>6.4985604529999996</v>
       </c>
       <c r="M88">
-        <v>8.0879999999999992</v>
+        <v>20.496198360000001</v>
       </c>
       <c r="N88">
         <v>3.6</v>
@@ -5106,24 +5119,24 @@
         <v>56</v>
       </c>
       <c r="P88">
-        <v>1E+100</v>
+        <v>3.5714285710000002</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B89">
-        <v>3127</v>
+        <v>9667</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>5</v>
-      </c>
-      <c r="E89" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="E89" s="1">
+        <v>43982</v>
       </c>
       <c r="F89">
         <v>5.8000000000000003E-2</v>
@@ -5141,19 +5154,19 @@
         <v>0.6</v>
       </c>
       <c r="K89">
-        <v>3.0599999999999999E-2</v>
+        <v>2.7908568000000002E-2</v>
       </c>
       <c r="L89">
-        <v>7.6829999999999998</v>
+        <v>7.8060582710000004</v>
       </c>
       <c r="M89">
-        <v>8.0879999999999992</v>
+        <v>7.5110472179999999</v>
       </c>
       <c r="N89">
         <v>3.6</v>
       </c>
       <c r="O89" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="P89">
         <v>1E+100</v>
@@ -5161,19 +5174,19 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B90">
-        <v>284971</v>
+        <v>3525</v>
       </c>
       <c r="C90">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>368</v>
-      </c>
-      <c r="E90" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E90" s="1">
+        <v>43982</v>
       </c>
       <c r="F90">
         <v>5.8000000000000003E-2</v>
@@ -5191,39 +5204,39 @@
         <v>0.6</v>
       </c>
       <c r="K90">
-        <v>5.77641703029889E-3</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="L90">
-        <v>21.657136436923601</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="M90">
-        <v>28.113325504865799</v>
+        <v>8.0879999999999992</v>
       </c>
       <c r="N90">
         <v>3.6</v>
       </c>
       <c r="O90" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="P90">
-        <v>71.142857142857096</v>
+        <v>1E+100</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B91">
-        <v>11309</v>
+        <v>3127</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91" t="s">
-        <v>17</v>
+        <v>5</v>
+      </c>
+      <c r="E91" s="1">
+        <v>43982</v>
       </c>
       <c r="F91">
         <v>5.8000000000000003E-2</v>
@@ -5253,7 +5266,7 @@
         <v>3.6</v>
       </c>
       <c r="O91" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="P91">
         <v>1E+100</v>
@@ -5261,102 +5274,202 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B92">
-        <v>16128</v>
+        <v>284971</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D92">
-        <v>47</v>
-      </c>
-      <c r="E92" t="s">
+        <v>368</v>
+      </c>
+      <c r="E92" s="1">
+        <v>43982</v>
+      </c>
+      <c r="F92">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G92">
+        <v>0.2</v>
+      </c>
+      <c r="H92">
+        <v>0.01</v>
+      </c>
+      <c r="I92">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J92">
+        <v>0.6</v>
+      </c>
+      <c r="K92">
+        <v>5.7764169999999998E-3</v>
+      </c>
+      <c r="L92">
+        <v>21.657136439999999</v>
+      </c>
+      <c r="M92">
+        <v>28.113325499999998</v>
+      </c>
+      <c r="N92">
+        <v>3.6</v>
+      </c>
+      <c r="O92" t="s">
         <v>17</v>
       </c>
-      <c r="F92">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G92">
-        <v>0.2</v>
-      </c>
-      <c r="H92">
-        <v>0.01</v>
-      </c>
-      <c r="I92">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J92">
-        <v>0.6</v>
-      </c>
-      <c r="K92">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="L92">
-        <v>7.6829999999999998</v>
-      </c>
-      <c r="M92">
-        <v>8.0879999999999992</v>
-      </c>
-      <c r="N92">
-        <v>3.6</v>
-      </c>
-      <c r="O92" t="s">
-        <v>40</v>
-      </c>
       <c r="P92">
-        <v>1E+100</v>
+        <v>71.142857140000004</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>108</v>
+      </c>
+      <c r="B93">
+        <v>11309</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>43982</v>
+      </c>
+      <c r="F93">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G93">
+        <v>0.2</v>
+      </c>
+      <c r="H93">
+        <v>0.01</v>
+      </c>
+      <c r="I93">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J93">
+        <v>0.6</v>
+      </c>
+      <c r="K93">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="L93">
+        <v>7.6829999999999998</v>
+      </c>
+      <c r="M93">
+        <v>8.0879999999999992</v>
+      </c>
+      <c r="N93">
+        <v>3.6</v>
+      </c>
+      <c r="O93" t="s">
+        <v>56</v>
+      </c>
+      <c r="P93">
+        <v>1E+100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94">
+        <v>16128</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>47</v>
+      </c>
+      <c r="E94" s="1">
+        <v>43982</v>
+      </c>
+      <c r="F94">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G94">
+        <v>0.2</v>
+      </c>
+      <c r="H94">
+        <v>0.01</v>
+      </c>
+      <c r="I94">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J94">
+        <v>0.6</v>
+      </c>
+      <c r="K94">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="L94">
+        <v>7.6829999999999998</v>
+      </c>
+      <c r="M94">
+        <v>8.0879999999999992</v>
+      </c>
+      <c r="N94">
+        <v>3.6</v>
+      </c>
+      <c r="O94" t="s">
+        <v>38</v>
+      </c>
+      <c r="P94">
+        <v>1E+100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>110</v>
       </c>
-      <c r="B93">
+      <c r="B95">
         <v>26037</v>
       </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
         <v>21</v>
       </c>
-      <c r="E93" t="s">
-        <v>17</v>
-      </c>
-      <c r="F93">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="G93">
-        <v>0.2</v>
-      </c>
-      <c r="H93">
-        <v>0.01</v>
-      </c>
-      <c r="I93">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J93">
-        <v>0.6</v>
-      </c>
-      <c r="K93">
-        <v>5.37464212924132E-2</v>
-      </c>
-      <c r="L93">
-        <v>1.95715944566961</v>
-      </c>
-      <c r="M93">
-        <v>61.994073717996898</v>
-      </c>
-      <c r="N93">
-        <v>3.6</v>
-      </c>
-      <c r="O93" t="s">
-        <v>46</v>
-      </c>
-      <c r="P93">
-        <v>1.6428571428571399</v>
+      <c r="E95" s="1">
+        <v>43982</v>
+      </c>
+      <c r="F95">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G95">
+        <v>0.2</v>
+      </c>
+      <c r="H95">
+        <v>0.01</v>
+      </c>
+      <c r="I95">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J95">
+        <v>0.6</v>
+      </c>
+      <c r="K95">
+        <v>5.3746421000000003E-2</v>
+      </c>
+      <c r="L95">
+        <v>1.9571594459999999</v>
+      </c>
+      <c r="M95">
+        <v>61.994073720000003</v>
+      </c>
+      <c r="N95">
+        <v>3.6</v>
+      </c>
+      <c r="O95" t="s">
+        <v>45</v>
+      </c>
+      <c r="P95">
+        <v>1.6428571430000001</v>
       </c>
     </row>
   </sheetData>
